--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="284">
   <si>
     <r>
       <rPr>
@@ -258,18 +258,6 @@
   </si>
   <si>
     <t>header</t>
-  </si>
-  <si>
-    <t>aside1</t>
-  </si>
-  <si>
-    <t>aside2</t>
-  </si>
-  <si>
-    <t>aside3</t>
-  </si>
-  <si>
-    <t>aside4</t>
   </si>
   <si>
     <t>MainController</t>
@@ -312,9 +300,6 @@
   </si>
   <si>
     <t>src/main/resources/query/admin</t>
-  </si>
-  <si>
-    <t>/WEB-INF/views/admin/notice</t>
   </si>
   <si>
     <t>/admin/notice/noticeList</t>
@@ -659,9 +644,6 @@
     <t>admin-notice.xml</t>
   </si>
   <si>
-    <t>/WEB-INF/views/admin/chart</t>
-  </si>
-  <si>
     <t>chartList</t>
   </si>
   <si>
@@ -996,9 +978,6 @@
   </si>
   <si>
     <t>AdminQuiryDAOImpl</t>
-  </si>
-  <si>
-    <t>/WEB-INF/views/quiry</t>
   </si>
   <si>
     <t>quiryList</t>
@@ -1150,9 +1129,6 @@
   </si>
   <si>
     <t>AdminReservationDAOImpl</t>
-  </si>
-  <si>
-    <t>/WEB-INF/views/admin/reservation</t>
   </si>
   <si>
     <t>reservationList</t>
@@ -1467,12 +1443,203 @@
     <t>MemberModify</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>/WEB-INF/views/admin/reservation</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/admin/notice</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/admin/chart</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/quiry</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside4(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside6(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside7(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside3(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1643,6 +1810,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1822,62 +1996,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,29 +2011,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,40 +2026,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,69 +2041,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,6 +2061,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,6 +2078,149 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2269,10 +2443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M924"/>
+  <dimension ref="A1:M927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2288,23 +2462,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2329,634 +2503,634 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="77" t="s">
+      <c r="E4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="77" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="78"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="77" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="82" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>259</v>
+      <c r="E9" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>260</v>
+      <c r="B10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>262</v>
+      <c r="B11" s="62"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>264</v>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>265</v>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>266</v>
+      <c r="B14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="78" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>268</v>
+      <c r="F15" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>270</v>
+      <c r="B16" s="62"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>272</v>
+      <c r="B17" s="62"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>274</v>
+      <c r="B18" s="62"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="77" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="81" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="26" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="E21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="30"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>174</v>
+      <c r="G26" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="28" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>175</v>
+      <c r="G27" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="31" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>176</v>
+      <c r="G28" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="31" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="12" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>177</v>
+      <c r="G34" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="12" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>178</v>
+      <c r="G35" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>179</v>
+      <c r="G36" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="12"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="20"/>
+      <c r="F38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="20"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="20"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="21"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>180</v>
+      <c r="B42" s="62"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>181</v>
+      <c r="B43" s="62"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>182</v>
+      <c r="B44" s="62"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="12"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="34" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="37"/>
+      <c r="E46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="40"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="40"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="74"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2965,16 +3139,16 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="40"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="74"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2983,30 +3157,30 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="42"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="75"/>
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="43" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="44" t="s">
-        <v>75</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>183</v>
+        <v>80</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -3016,15 +3190,15 @@
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>184</v>
+      <c r="B52" s="62"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -3034,52 +3208,52 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="47" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="39" t="s">
-        <v>87</v>
+      <c r="G53" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="47" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="39"/>
+      <c r="E54" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="13"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="53"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3088,16 +3262,16 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="13"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="53"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3106,14 +3280,14 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="13"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="53"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3122,16 +3296,16 @@
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G58" s="13"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="53"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -3140,14 +3314,14 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="13"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="53"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -3156,19 +3330,19 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>140</v>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -3178,1121 +3352,1127 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>142</v>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>185</v>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>147</v>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="54" t="s">
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="49" t="s">
+      <c r="C65" s="79"/>
+      <c r="D65" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" s="12" t="s">
+      <c r="E65" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F67" s="12" t="s">
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" s="12" t="s">
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="12" t="s">
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F70" s="12" t="s">
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
       <c r="F71" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="12" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="60"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="49" t="s">
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>250</v>
+      <c r="E73" s="53" t="s">
+        <v>242</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="12" t="s">
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="12" t="s">
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="24"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="12" t="s">
+      <c r="G85" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="61"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="65"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G86" s="20"/>
+      <c r="B86" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G87" s="20"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G88" s="21"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88" s="40"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>222</v>
-      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G89" s="42"/>
     </row>
     <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="B90" s="30"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G90" s="42"/>
     </row>
     <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91" s="12"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G91" s="41"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G92" s="65"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" s="20"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" s="20"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" s="20"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" s="40"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="21"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" s="42"/>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>186</v>
-      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97" s="42"/>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" s="42"/>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>105</v>
-      </c>
+      <c r="B99" s="30"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G99" s="41"/>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>107</v>
+      <c r="B100" s="30"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>110</v>
+      <c r="B101" s="30"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" s="12"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="D103" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G103" s="65"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G104" s="20"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" s="20"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G106" s="21"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="40"/>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>236</v>
-      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="42"/>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>238</v>
-      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="42"/>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G109" s="41"/>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>244</v>
+      <c r="B110" s="30"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G111" s="12"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E112" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="65"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="113" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" s="20"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="114" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="20"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" s="20"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="40"/>
     </row>
     <row r="116" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" s="21"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="84"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="42"/>
     </row>
     <row r="117" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="42"/>
     </row>
     <row r="118" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="84"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="42"/>
     </row>
     <row r="119" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" s="41"/>
     </row>
     <row r="120" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>118</v>
+      <c r="B120" s="30"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>61</v>
+      <c r="B121" s="30"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="18" t="s">
+      <c r="B122" s="30"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E122" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>122</v>
+      <c r="B123" s="30"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G124" s="11"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="125" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G125" s="11"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" s="71"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="30"/>
+      <c r="C126" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G126" s="51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D127" s="64" t="s">
+      <c r="B127" s="30"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G127" s="51"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+    </row>
+    <row r="128" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" s="51"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+    </row>
+    <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G129" s="77"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G130" s="40"/>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G131" s="42"/>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G132" s="42"/>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G133" s="41"/>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E127" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G127" s="65"/>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G128" s="20"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G129" s="20"/>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="72"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G130" s="21"/>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E131" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="72"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="72"/>
-      <c r="D136" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
@@ -4301,7 +4481,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
@@ -4310,7 +4490,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
@@ -4319,7 +4499,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
@@ -4492,17 +4672,35 @@
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
@@ -4659,30 +4857,12 @@
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
@@ -5315,31 +5495,31 @@
       <c r="G290" s="2"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="3"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="3"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
@@ -5347,8 +5527,8 @@
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
@@ -11011,64 +11191,59 @@
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="3"/>
+      <c r="B924" s="3"/>
+      <c r="C924" s="3"/>
+      <c r="D924" s="3"/>
+      <c r="E924" s="3"/>
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
     </row>
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="3"/>
+      <c r="B925" s="3"/>
+      <c r="C925" s="3"/>
+      <c r="D925" s="3"/>
+      <c r="E925" s="3"/>
+      <c r="F925" s="3"/>
+      <c r="G925" s="3"/>
+    </row>
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="3"/>
+      <c r="B926" s="3"/>
+      <c r="C926" s="3"/>
+      <c r="D926" s="3"/>
+      <c r="E926" s="3"/>
+      <c r="F926" s="3"/>
+      <c r="G926" s="3"/>
+    </row>
+    <row r="927" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F927" s="3"/>
+      <c r="G927" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B83:B137"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="C103:C111"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="C127:C137"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="D131:D135"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D65:D72"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="B65:C85"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="C115:C125"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D120:D123"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="E73:E84"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="B4:B64"/>
     <mergeCell ref="D46:D50"/>
@@ -11082,31 +11257,63 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D65:D72"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D73:D84"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="B65:C82"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="G112:G116"/>
-    <mergeCell ref="C112:C122"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="C92:C102"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C130:C140"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B86:B140"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="C106:C114"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E138"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="288">
   <si>
     <r>
       <rPr>
@@ -138,9 +138,6 @@
     <t>view</t>
   </si>
   <si>
-    <t>/WEB-INF/view/client/member/info</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
   </si>
   <si>
     <t>Util</t>
-  </si>
-  <si>
-    <t>/main</t>
   </si>
   <si>
     <t>header</t>
@@ -306,21 +300,6 @@
   </si>
   <si>
     <t>/admin/notice</t>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ontentLayout</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>mainLayout</t>
@@ -478,10 +457,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>com.work.client.reservation.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>src/main/resources/query/client</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1206,10 +1181,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/WEB-INF/views/template</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>com.camflex.common.controller</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1259,10 +1230,6 @@
   </si>
   <si>
     <t>com.camflex.client.member.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/WEB-INF/views/client/member</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1511,56 +1478,6 @@
   </si>
   <si>
     <r>
-      <t>aside6(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>aside7(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>aside3(</t>
     </r>
     <r>
@@ -1632,6 +1549,118 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/template/client</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ontentLayout1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ontentLayout2</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/template/admin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intro</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.client.reservation.controller</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/client/member/info</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEB-INF/views/client/member</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1980,7 +2009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2061,129 +2090,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2195,7 +2108,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2219,7 +2159,105 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2443,10 +2481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M927"/>
+  <dimension ref="A1:M933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2462,23 +2500,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2503,17 +2541,17 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
@@ -2523,10 +2561,10 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
@@ -2536,8 +2574,8 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="62"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="32"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
@@ -2547,10 +2585,10 @@
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="62"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
@@ -2560,8 +2598,8 @@
     <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="32"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
@@ -2571,566 +2609,566 @@
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="32"/>
       <c r="F10" s="27" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="62"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="32"/>
       <c r="F11" s="27" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="32"/>
       <c r="F12" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="32"/>
       <c r="F13" s="27" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="32"/>
       <c r="F14" s="27" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="32" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="62"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="32"/>
       <c r="F16" s="26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="62"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="32"/>
       <c r="F17" s="26" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="32"/>
       <c r="F18" s="26" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="62"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
-      <c r="C21" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="55" t="s">
-        <v>160</v>
+      <c r="C22" s="73"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="56"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="62"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="56"/>
+        <v>22</v>
+      </c>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="62"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="55" t="s">
-        <v>159</v>
+      <c r="C24" s="73"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="56"/>
+        <v>23</v>
+      </c>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="62"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="57" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="G26" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="62"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="62"/>
-      <c r="C29" s="58"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>166</v>
+      <c r="C30" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="53"/>
+        <v>32</v>
+      </c>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="62"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="52"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="53"/>
+        <v>33</v>
+      </c>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="51" t="s">
-        <v>165</v>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="53"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="62"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="52"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="53"/>
+        <v>31</v>
+      </c>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="62"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>164</v>
+      <c r="C34" s="38"/>
+      <c r="D34" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="62"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="57"/>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="62"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="62"/>
-      <c r="C37" s="47"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="62"/>
-      <c r="C38" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>151</v>
+      <c r="C38" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="42"/>
+        <v>86</v>
+      </c>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="62"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="52"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="42"/>
+        <v>87</v>
+      </c>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="51" t="s">
-        <v>152</v>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="42"/>
+        <v>89</v>
+      </c>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="62"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="52"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="41"/>
+        <v>90</v>
+      </c>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="62"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>153</v>
+      <c r="C42" s="38"/>
+      <c r="D42" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>149</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="54"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="46"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="47"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="62"/>
-      <c r="C46" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="68" t="s">
+      <c r="C46" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="62"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="70" t="s">
-        <v>68</v>
+      <c r="C47" s="64"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="62"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="71"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="74"/>
+        <v>72</v>
+      </c>
+      <c r="G48" s="34"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3140,15 +3178,15 @@
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="62"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="71" t="s">
-        <v>69</v>
+      <c r="C49" s="64"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="74"/>
+        <v>73</v>
+      </c>
+      <c r="G49" s="34"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3158,29 +3196,29 @@
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="62"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="70"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="75"/>
+        <v>74</v>
+      </c>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="73" t="s">
-        <v>70</v>
+      <c r="C51" s="64"/>
+      <c r="D51" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -3191,14 +3229,14 @@
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="72"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -3209,51 +3247,51 @@
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="69"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>285</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="62"/>
-      <c r="C54" s="69"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="62"/>
-      <c r="C55" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>122</v>
+      <c r="C55" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="53"/>
+        <v>120</v>
+      </c>
+      <c r="G55" s="58"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3263,15 +3301,15 @@
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="53" t="s">
-        <v>125</v>
+      <c r="C56" s="75"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="58" t="s">
+        <v>121</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="53"/>
+        <v>122</v>
+      </c>
+      <c r="G56" s="58"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3281,13 +3319,13 @@
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="53"/>
+        <v>123</v>
+      </c>
+      <c r="G57" s="58"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3297,15 +3335,15 @@
     <row r="58" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="53" t="s">
-        <v>128</v>
+      <c r="C58" s="75"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="G58" s="58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -3315,13 +3353,13 @@
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="53"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="53"/>
+        <v>126</v>
+      </c>
+      <c r="G59" s="58"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -3331,18 +3369,18 @@
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>132</v>
+      <c r="C60" s="75"/>
+      <c r="D60" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -3353,1178 +3391,1196 @@
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="53"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="53"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="63"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F64" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="60"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="62"/>
       <c r="E67" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="62"/>
-      <c r="E68" s="53" t="s">
-        <v>240</v>
+      <c r="E68" s="58" t="s">
+        <v>236</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
       <c r="F69" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="81"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="62"/>
-      <c r="E70" s="53" t="s">
-        <v>241</v>
+      <c r="E70" s="58" t="s">
+        <v>237</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
       <c r="F71" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
       <c r="F72" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="60" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="71" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="53"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="54"/>
       <c r="F74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G76" s="7"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="53"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="54"/>
       <c r="F77" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="53"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="54"/>
       <c r="F78" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G79" s="7"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G80" s="8"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="8" t="s">
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="G81" s="8"/>
+      <c r="F81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" s="24"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>243</v>
-      </c>
+      <c r="B85" s="49"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="54"/>
       <c r="F85" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="B86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="30"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="50"/>
-      <c r="D87" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="D87" s="71"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="40"/>
-    </row>
-    <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="49"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G89" s="42"/>
-    </row>
-    <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="49"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G90" s="42"/>
-    </row>
-    <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="41"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="F91" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="21" t="s">
-        <v>13</v>
+      <c r="B92" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="21" t="s">
-        <v>216</v>
+      <c r="B93" s="61"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>54</v>
+      <c r="B94" s="61"/>
+      <c r="C94" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="53" t="s">
+        <v>203</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G94" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="G94" s="53"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="B95" s="61"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="55"/>
       <c r="F95" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" s="40"/>
+        <v>205</v>
+      </c>
+      <c r="G95" s="54"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="51" t="s">
-        <v>89</v>
+      <c r="B96" s="61"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G96" s="42"/>
+        <v>207</v>
+      </c>
+      <c r="G96" s="54"/>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="52"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="55"/>
       <c r="F97" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="42"/>
+        <v>208</v>
+      </c>
+      <c r="G97" s="55"/>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="51" t="s">
-        <v>92</v>
+      <c r="B98" s="61"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G98" s="42"/>
+        <v>210</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="52"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="F99" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G99" s="41"/>
+        <v>214</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" s="51" t="s">
-        <v>95</v>
+      <c r="B100" s="61"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="54"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="F101" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G101" s="53"/>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="54"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="F102" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G102" s="54"/>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="52"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="57"/>
       <c r="F103" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G103" s="54"/>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>103</v>
+      <c r="B104" s="61"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G104" s="54"/>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="B105" s="61"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="G105" s="55"/>
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>221</v>
+      <c r="B106" s="61"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G106" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="41"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="78"/>
       <c r="F107" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G107" s="42"/>
+        <v>93</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="40" t="s">
-        <v>224</v>
-      </c>
+      <c r="B108" s="61"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="78"/>
       <c r="F108" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G108" s="42"/>
+        <v>95</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="41"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="57"/>
       <c r="F109" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G109" s="41"/>
+        <v>97</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>273</v>
+      <c r="B110" s="61"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="42"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F111" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="41"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>217</v>
+      </c>
       <c r="F112" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="53"/>
+    </row>
+    <row r="113" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G113" s="54"/>
+    </row>
+    <row r="114" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G114" s="54"/>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G115" s="55"/>
+    </row>
+    <row r="116" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G114" s="7"/>
-    </row>
-    <row r="115" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="53"/>
+    </row>
+    <row r="122" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="54"/>
+    </row>
+    <row r="123" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="54"/>
+    </row>
+    <row r="124" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="40"/>
-    </row>
-    <row r="116" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="42"/>
-    </row>
-    <row r="117" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="7" t="s">
+      <c r="G124" s="54"/>
+    </row>
+    <row r="125" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="55"/>
+    </row>
+    <row r="126" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G117" s="42"/>
-    </row>
-    <row r="118" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" s="42"/>
-    </row>
-    <row r="119" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="84"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="41"/>
-    </row>
-    <row r="120" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="84"/>
-      <c r="D120" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E120" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="84"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="9" t="s">
+      <c r="G127" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G125" s="7"/>
-    </row>
-    <row r="126" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E126" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G126" s="51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G127" s="51"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-    </row>
-    <row r="128" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" s="51"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
+      <c r="G128" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="77"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="57"/>
       <c r="F129" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G129" s="77"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E130" s="40" t="s">
-        <v>182</v>
+      <c r="B130" s="61"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G130" s="40"/>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="41"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F131" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G131" s="42"/>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="40" t="s">
-        <v>185</v>
+      <c r="B132" s="61"/>
+      <c r="C132" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E132" s="45" t="s">
+        <v>269</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G132" s="42"/>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="G132" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="30"/>
+      <c r="B133" s="61"/>
       <c r="C133" s="43"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="41"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="45"/>
       <c r="F133" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G133" s="41"/>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G133" s="45"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+    </row>
+    <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="30"/>
+      <c r="B134" s="61"/>
       <c r="C134" s="43"/>
-      <c r="D134" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E134" s="40" t="s">
-        <v>276</v>
-      </c>
+      <c r="D134" s="43"/>
+      <c r="E134" s="45"/>
       <c r="F134" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="G134" s="45"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+    </row>
+    <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="42"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="46"/>
       <c r="F135" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>191</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G135" s="46"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="42"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E136" s="53" t="s">
+        <v>178</v>
+      </c>
       <c r="F136" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G136" s="53"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="42"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="81"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="55"/>
       <c r="F137" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G137" s="54"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="41"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="53" t="s">
+        <v>181</v>
+      </c>
       <c r="F138" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G138" s="54"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="B139" s="61"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="55"/>
       <c r="F139" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G139" s="55"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>200</v>
+      <c r="B140" s="61"/>
+      <c r="C140" s="81"/>
+      <c r="D140" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E140" s="53" t="s">
+        <v>270</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G140" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G146" s="7"/>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
@@ -4699,26 +4755,62 @@
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
@@ -4828,95 +4920,59 @@
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
@@ -5522,58 +5578,58 @@
       <c r="G293" s="2"/>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="3"/>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="3"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="3"/>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="3"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="3"/>
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
@@ -5581,8 +5637,8 @@
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="3"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
@@ -11218,32 +11274,110 @@
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="3"/>
+      <c r="B927" s="3"/>
+      <c r="C927" s="3"/>
+      <c r="D927" s="3"/>
+      <c r="E927" s="3"/>
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
     </row>
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="3"/>
+      <c r="B928" s="3"/>
+      <c r="C928" s="3"/>
+      <c r="D928" s="3"/>
+      <c r="E928" s="3"/>
+      <c r="F928" s="3"/>
+      <c r="G928" s="3"/>
+    </row>
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="3"/>
+      <c r="B929" s="3"/>
+      <c r="C929" s="3"/>
+      <c r="D929" s="3"/>
+      <c r="E929" s="3"/>
+      <c r="F929" s="3"/>
+      <c r="G929" s="3"/>
+    </row>
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="3"/>
+      <c r="B930" s="3"/>
+      <c r="C930" s="3"/>
+      <c r="D930" s="3"/>
+      <c r="E930" s="3"/>
+      <c r="F930" s="3"/>
+      <c r="G930" s="3"/>
+    </row>
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="3"/>
+      <c r="B931" s="3"/>
+      <c r="C931" s="3"/>
+      <c r="D931" s="3"/>
+      <c r="E931" s="3"/>
+      <c r="F931" s="3"/>
+      <c r="G931" s="3"/>
+    </row>
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="3"/>
+      <c r="B932" s="3"/>
+      <c r="C932" s="3"/>
+      <c r="D932" s="3"/>
+      <c r="E932" s="3"/>
+      <c r="F932" s="3"/>
+      <c r="G932" s="3"/>
+    </row>
+    <row r="933" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F933" s="3"/>
+      <c r="G933" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
+  <mergeCells count="91">
+    <mergeCell ref="B92:B146"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="C136:C146"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="D140:D144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
     <mergeCell ref="E126:E129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="B65:C85"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="C115:C125"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="E81:E90"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="B4:B64"/>
     <mergeCell ref="D46:D50"/>
@@ -11259,61 +11393,38 @@
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E60:E62"/>
     <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="E132:E135"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="B65:C91"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="G121:G125"/>
+    <mergeCell ref="C121:C131"/>
+    <mergeCell ref="D121:D125"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D126:D129"/>
     <mergeCell ref="D65:D72"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="E70:E72"/>
-    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="C21:C29"/>
     <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D73:D84"/>
+    <mergeCell ref="D73:D90"/>
     <mergeCell ref="C55:C64"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="D55:D59"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="C130:C140"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B86:B140"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="C106:C114"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E138"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="289">
   <si>
     <r>
       <rPr>
@@ -535,9 +535,6 @@
     <t>MODEL</t>
   </si>
   <si>
-    <t>com.camflex.admin.product.vo</t>
-  </si>
-  <si>
     <t>ProductVO</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
   </si>
   <si>
     <t>admin-product.xml</t>
-  </si>
-  <si>
-    <t>com.camflex.admin.notice.vo</t>
   </si>
   <si>
     <t>/admin/notice/noticeDetail</t>
@@ -1226,10 +1220,6 @@
   </si>
   <si>
     <t>com.camflex.client.member.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.camflex.client.member.service</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1656,11 +1646,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/WEB-INF/view/client/member/info</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/WEB-INF/views/client/member</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.client.member.service</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/join</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.admin.product.vo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.admin.notice.vo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2009,7 +2015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2096,32 +2102,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,13 +2132,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2159,60 +2245,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,35 +2269,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2481,10 +2508,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M933"/>
+  <dimension ref="A1:M934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2500,23 +2527,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2541,216 +2568,214 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="32" t="s">
-        <v>243</v>
+      <c r="B5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="32" t="s">
-        <v>244</v>
+      <c r="B7" s="63"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35" t="s">
+        <v>284</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>287</v>
+      <c r="E9" s="89" t="s">
+        <v>283</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="32" t="s">
-        <v>286</v>
-      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>15</v>
@@ -2761,8 +2786,8 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="29" t="s">
         <v>17</v>
       </c>
@@ -2776,417 +2801,412 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="73" t="s">
-        <v>116</v>
+      <c r="B21" s="63"/>
+      <c r="C21" s="84" t="s">
+        <v>114</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="68" t="s">
-        <v>156</v>
+      <c r="B22" s="63"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="68" t="s">
-        <v>155</v>
+      <c r="B24" s="63"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59" t="s">
+        <v>153</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="69"/>
+        <v>115</v>
+      </c>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="72" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="92" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>166</v>
+      <c r="B28" s="63"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="58"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>160</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="58"/>
+        <v>32</v>
+      </c>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="45" t="s">
-        <v>161</v>
-      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="58"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="43" t="s">
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E35" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G35" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="7" t="s">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="9" t="s">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="E45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="54"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="54"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="54"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="87" t="s">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D47" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="65" t="s">
+      <c r="G47" s="69"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="F48" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="82"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="66" t="s">
-        <v>66</v>
-      </c>
+      <c r="B49" s="63"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="G49" s="82"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3195,48 +3215,48 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="68" t="s">
+        <v>66</v>
+      </c>
       <c r="F50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="82"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="35"/>
-    </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
+      <c r="G51" s="83"/>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="7" t="s">
-        <v>77</v>
+      <c r="B52" s="63"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -3244,72 +3264,72 @@
       <c r="L52"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="B53" s="63"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="64"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="58"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="58" t="s">
-        <v>121</v>
+      <c r="B56" s="63"/>
+      <c r="C56" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="58"/>
+        <v>118</v>
+      </c>
+      <c r="G56" s="55"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3318,48 +3338,50 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="58"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="55" t="s">
+        <v>119</v>
+      </c>
       <c r="F57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="58"/>
+        <v>120</v>
+      </c>
+      <c r="G57" s="55"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="58" t="s">
-        <v>124</v>
-      </c>
+      <c r="B58" s="63"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="55"/>
       <c r="F58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
+        <v>121</v>
+      </c>
+      <c r="G58" s="55"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="58"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="55" t="s">
+        <v>122</v>
+      </c>
       <c r="F59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="G59" s="55"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -3368,1045 +3390,1045 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>128</v>
-      </c>
+      <c r="B60" s="63"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G60" s="55"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="58"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>126</v>
+      </c>
       <c r="F61" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>132</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="58"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="55"/>
       <c r="F62" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="B63" s="63"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>18</v>
+      <c r="B64" s="63"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="63"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="71" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E66" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="62"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="58" t="s">
-        <v>236</v>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="55" t="s">
+        <v>234</v>
+      </c>
       <c r="F69" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="58" t="s">
-        <v>237</v>
-      </c>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="6" t="s">
-        <v>70</v>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="23"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="7"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="54"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="7"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="54"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="45"/>
       <c r="F78" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" s="30"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="55"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G80" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="53" t="s">
-        <v>279</v>
-      </c>
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="30" t="s">
-        <v>45</v>
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="54"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="30" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="G83" s="30"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84" s="7"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="30"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="54"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G86" s="8"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="54"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="45"/>
       <c r="F87" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="54"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="55"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G90" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G90" s="7"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="B91" s="77"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="24"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>79</v>
+      <c r="B92" s="79"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="37"/>
+      <c r="B93" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>137</v>
+      </c>
       <c r="D93" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="53" t="s">
-        <v>203</v>
+      <c r="B94" s="33"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G94" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="55"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>201</v>
+      </c>
       <c r="F95" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G95" s="54"/>
+        <v>202</v>
+      </c>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="53" t="s">
-        <v>206</v>
-      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="44"/>
       <c r="F96" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" s="54"/>
+        <v>203</v>
+      </c>
+      <c r="G96" s="45"/>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="55"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="43" t="s">
+        <v>204</v>
+      </c>
       <c r="F97" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="55"/>
+        <v>205</v>
+      </c>
+      <c r="G97" s="45"/>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="44"/>
       <c r="F98" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G98" s="44"/>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="21" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="37"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="21" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>83</v>
+      <c r="B101" s="33"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G101" s="53"/>
+        <v>214</v>
+      </c>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="45" t="s">
-        <v>85</v>
+      <c r="B102" s="33"/>
+      <c r="C102" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G102" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="G102" s="43"/>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="57"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="F103" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G103" s="54"/>
+        <v>85</v>
+      </c>
+      <c r="G103" s="45"/>
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="45" t="s">
-        <v>88</v>
-      </c>
+      <c r="B104" s="33"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G104" s="54"/>
+        <v>86</v>
+      </c>
+      <c r="G104" s="45"/>
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="57"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="F105" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G105" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="G105" s="45"/>
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E106" s="45" t="s">
-        <v>91</v>
-      </c>
+      <c r="B106" s="33"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G106" s="44"/>
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="78"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>90</v>
+      </c>
       <c r="F107" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="78"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="57"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B110" s="33"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="56"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="54"/>
       <c r="D111" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="D112" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="53" t="s">
-        <v>217</v>
+      <c r="B112" s="33"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G112" s="53"/>
+        <v>102</v>
+      </c>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="55"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>215</v>
+      </c>
       <c r="F113" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G113" s="54"/>
+        <v>216</v>
+      </c>
+      <c r="G113" s="43"/>
     </row>
     <row r="114" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="53" t="s">
-        <v>220</v>
-      </c>
+      <c r="B114" s="33"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="44"/>
       <c r="F114" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G114" s="54"/>
+        <v>217</v>
+      </c>
+      <c r="G114" s="45"/>
     </row>
     <row r="115" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="55"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="43" t="s">
+        <v>218</v>
+      </c>
       <c r="F115" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G115" s="55"/>
+        <v>219</v>
+      </c>
+      <c r="G115" s="45"/>
     </row>
     <row r="116" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="53" t="s">
-        <v>267</v>
-      </c>
+      <c r="B116" s="33"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="44"/>
       <c r="F116" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>224</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G116" s="44"/>
     </row>
     <row r="117" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="54"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>264</v>
+      </c>
       <c r="F117" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="55"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="45"/>
       <c r="F118" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="B119" s="33"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="44"/>
       <c r="F119" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="42"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="21" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="121" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D121" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>104</v>
+      <c r="B121" s="33"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="53"/>
+        <v>229</v>
+      </c>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="45" t="s">
-        <v>59</v>
+      <c r="B122" s="33"/>
+      <c r="C122" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="G122" s="43"/>
     </row>
     <row r="123" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="57"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="F123" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G123" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="G123" s="45"/>
     </row>
     <row r="124" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="B124" s="33"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="49"/>
       <c r="F124" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" s="54"/>
+        <v>33</v>
+      </c>
+      <c r="G124" s="45"/>
     </row>
     <row r="125" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="57"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="F125" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="G125" s="45"/>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E126" s="45" t="s">
-        <v>268</v>
-      </c>
+      <c r="B126" s="33"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="49"/>
       <c r="F126" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G126" s="44"/>
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="78"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="F127" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="78"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="7" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="57"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="53"/>
       <c r="F129" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B130" s="33"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="49"/>
       <c r="F130" s="7" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="56"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G131" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D132" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E132" s="45" t="s">
-        <v>269</v>
+      <c r="B132" s="33"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G132" s="45" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G132" s="7"/>
     </row>
     <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="45"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>266</v>
+      </c>
       <c r="F133" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G133" s="45"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
+        <v>109</v>
+      </c>
+      <c r="G133" s="48" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="45"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="48"/>
       <c r="F134" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G134" s="45"/>
+        <v>111</v>
+      </c>
+      <c r="G134" s="48"/>
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
@@ -4415,181 +4437,188 @@
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="46"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="48"/>
       <c r="F135" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G135" s="46"/>
+        <v>112</v>
+      </c>
+      <c r="G135" s="48"/>
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D136" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E136" s="53" t="s">
-        <v>178</v>
-      </c>
+      <c r="B136" s="33"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="74"/>
       <c r="F136" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G136" s="53"/>
+        <v>113</v>
+      </c>
+      <c r="G136" s="74"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="81"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="55"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="43" t="s">
+        <v>176</v>
+      </c>
       <c r="F137" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G137" s="54"/>
+        <v>177</v>
+      </c>
+      <c r="G137" s="43"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="81"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="53" t="s">
-        <v>181</v>
-      </c>
+      <c r="B138" s="33"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="44"/>
       <c r="F138" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G138" s="54"/>
+        <v>178</v>
+      </c>
+      <c r="G138" s="45"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="55"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="43" t="s">
+        <v>179</v>
+      </c>
       <c r="F139" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G139" s="55"/>
+        <v>180</v>
+      </c>
+      <c r="G139" s="45"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="81"/>
-      <c r="D140" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E140" s="53" t="s">
-        <v>270</v>
-      </c>
+      <c r="B140" s="33"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="44"/>
       <c r="F140" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>185</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G140" s="44"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="81"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="54"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="43" t="s">
+        <v>267</v>
+      </c>
       <c r="F141" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="81"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="54"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="45"/>
       <c r="F142" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="54"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="45"/>
       <c r="F143" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="81"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="55"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="45"/>
       <c r="F144" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>193</v>
-      </c>
+      <c r="B145" s="33"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="44"/>
       <c r="F145" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="82"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="46"/>
       <c r="D146" s="21" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="E146" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F146" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G146" s="7"/>
+      <c r="G146" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G147" s="7"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
@@ -4809,11 +4838,17 @@
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
@@ -4976,12 +5011,6 @@
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
@@ -5632,11 +5661,11 @@
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
     </row>
@@ -5646,8 +5675,8 @@
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
@@ -11328,107 +11357,115 @@
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="3"/>
+      <c r="B933" s="3"/>
+      <c r="C933" s="3"/>
+      <c r="D933" s="3"/>
+      <c r="E933" s="3"/>
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
     </row>
+    <row r="934" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F934" s="3"/>
+      <c r="G934" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="B92:B146"/>
+  <mergeCells count="90">
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D74:D91"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B66:C92"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="C122:C132"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B4:B65"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="C137:C147"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D141:D145"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="B93:B147"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E144"/>
-    <mergeCell ref="C136:C146"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="C101:C111"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="E81:E90"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B4:B64"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="E132:E135"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="B65:C91"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="G121:G125"/>
-    <mergeCell ref="C121:C131"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="D65:D72"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D73:D90"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E141:E145"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E46" r:id="rId1" display="com.workspace.client.contract.vo"/>
+    <hyperlink ref="E47" r:id="rId1" display="com.workspace.client.contract.vo"/>
     <hyperlink ref="E4" r:id="rId2" display="com.workspace.client.member.vo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="291">
   <si>
     <r>
       <rPr>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>NoticeController</t>
-  </si>
-  <si>
-    <t>ContractController</t>
   </si>
   <si>
     <r>
@@ -441,10 +438,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>com.camflex.client.reservation.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>com.camflex.client.reservation.dao</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -512,14 +505,6 @@
   </si>
   <si>
     <t>ReservationDetail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReservationAgreePage</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reservation</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -882,36 +867,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/product/productList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/product/productDetail</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/product</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reservationDetail</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1642,31 +1602,102 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>/WEB-INF/views/client/member</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.client.member.service</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/join</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.admin.product.vo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.admin.notice.vo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.client.reservation.vo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>com.camflex.client.reservation.controller</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/WEB-INF/views/client/member</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.camflex.client.member.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.camflex.admin.product.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.camflex.admin.notice.vo</t>
+    <t>ReservationController</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/productList</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reservation</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reservationDetail</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReservationAgreePage</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1705,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1856,8 +1887,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1876,8 +1919,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2006,16 +2054,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2105,13 +2171,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,8 +2198,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2132,99 +2225,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,50 +2273,98 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="메모" xfId="4" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 3" xfId="2"/>
@@ -2510,8 +2586,8 @@
   </sheetPr>
   <dimension ref="A1:M934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:F55"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2523,29 +2599,32 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2565,217 +2644,235 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="42"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
-        <v>241</v>
+      <c r="B5" s="72"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="42" t="s">
+        <v>235</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="42"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="42"/>
+      <c r="H6" s="96"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
-        <v>284</v>
+      <c r="B7" s="72"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="42"/>
+      <c r="H7" s="96"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="42"/>
+      <c r="H8" s="96"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>283</v>
+      <c r="E9" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="96"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="96"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="96"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="96"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="H13" s="96"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="27" t="s">
+      <c r="H14" s="96"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="27" t="s">
+      <c r="H15" s="96"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="26" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="26" t="s">
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="26" t="s">
+      <c r="H18" s="96"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>15</v>
@@ -2783,11 +2880,12 @@
       <c r="G19" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="96"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="29" t="s">
         <v>17</v>
       </c>
@@ -2798,136 +2896,146 @@
         <v>19</v>
       </c>
       <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="72" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="59"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="80"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59" t="s">
-        <v>154</v>
+      <c r="B22" s="72"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="80" t="s">
+        <v>150</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="81"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="60"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="81"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="59" t="s">
-        <v>153</v>
+      <c r="B24" s="72"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="80" t="s">
+        <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="60"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="96"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="60"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="81"/>
+      <c r="H25" s="96"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="36" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="92" t="s">
+      <c r="E26" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="H26" s="96"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="93"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="H27" s="96"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="94"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="32" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="H28" s="96"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="H29" s="96"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
@@ -2938,275 +3046,295 @@
         <v>28</v>
       </c>
       <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="96"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>160</v>
+      <c r="B31" s="72"/>
+      <c r="C31" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="51"/>
+      <c r="H31" s="96"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="51"/>
+      <c r="H32" s="96"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="48" t="s">
-        <v>159</v>
+      <c r="B33" s="72"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="59" t="s">
+        <v>155</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="51"/>
+      <c r="H33" s="96"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="51"/>
+      <c r="H34" s="96"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>158</v>
+      <c r="B35" s="72"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="H35" s="96"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H36" s="96"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="H37" s="96"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="96"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="72"/>
+      <c r="C39" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="68"/>
+      <c r="H39" s="96"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="68"/>
+      <c r="H40" s="96"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="96"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="69"/>
+      <c r="H42" s="96"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H43" s="96"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="96"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="96"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="45"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="F46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="96"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="96"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="69"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="82"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="96"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="68"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="78"/>
       <c r="F49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="82"/>
+        <v>70</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="96"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3215,16 +3343,17 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="68" t="s">
-        <v>66</v>
+      <c r="B50" s="72"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="78" t="s">
+        <v>64</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="82"/>
+        <v>71</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="96"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3233,31 +3362,33 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="67"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="83"/>
+        <v>72</v>
+      </c>
+      <c r="G51" s="91"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>67</v>
+      <c r="B52" s="72"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H52" s="96"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -3266,16 +3397,17 @@
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="70"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H53" s="96"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -3284,52 +3416,57 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="66"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>78</v>
+        <v>287</v>
+      </c>
+      <c r="H54" s="97" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="66"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="16"/>
+      <c r="H55" s="96"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>116</v>
+      <c r="B56" s="72"/>
+      <c r="C56" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>112</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="55"/>
+        <v>114</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="H56" s="96"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3338,16 +3475,17 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="55" t="s">
-        <v>119</v>
+      <c r="B57" s="72"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="51" t="s">
+        <v>115</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="H57" s="96"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3356,14 +3494,15 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="55"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="55"/>
+        <v>117</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="H58" s="96"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3372,16 +3511,17 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="55" t="s">
-        <v>122</v>
+      <c r="B59" s="72"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="51" t="s">
+        <v>118</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="55"/>
+        <v>119</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="96"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -3390,14 +3530,15 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="55"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="G60" s="51"/>
+      <c r="H60" s="96"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -3406,20 +3547,21 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>126</v>
+      <c r="B61" s="72"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>128</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H61" s="96"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -3428,51 +3570,54 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="55"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>130</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H62" s="96"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="55"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H63" s="96"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="86"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="H64" s="96"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="86"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="21" t="s">
         <v>17</v>
       </c>
@@ -3480,310 +3625,336 @@
         <v>18</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="96"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="62"/>
+      <c r="D66" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="96"/>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="96"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="96"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="96"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7"/>
+      <c r="H70" s="96"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7"/>
+      <c r="H71" s="96"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="96"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="23"/>
+      <c r="H73" s="96"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H74" s="96"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="23"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="96"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="45"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="96"/>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="45"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G77" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="G77" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="96"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="45"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="96"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="45"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="96"/>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="45"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G80" s="30"/>
+      <c r="H80" s="96"/>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="44"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="69"/>
       <c r="F81" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" s="24"/>
+      <c r="H81" s="96"/>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="43" t="s">
-        <v>276</v>
+      <c r="B82" s="63"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="67" t="s">
+        <v>270</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G82" s="30"/>
+      <c r="H82" s="96"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="45"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83" s="30"/>
+      <c r="H83" s="96"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="45"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G84" s="30"/>
+      <c r="H84" s="96"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="45"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G85" s="7"/>
+      <c r="H85" s="96"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="45"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="68"/>
       <c r="F86" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G86" s="7"/>
+      <c r="H86" s="96"/>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="45"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G87" s="8"/>
+      <c r="H87" s="96"/>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="45"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="68"/>
       <c r="F88" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G88" s="8"/>
+      <c r="H88" s="96"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="45"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G89" s="8"/>
+      <c r="H89" s="96"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="45"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="68"/>
       <c r="F90" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G90" s="7"/>
+      <c r="H90" s="96"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -3792,14 +3963,15 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="44"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="69"/>
       <c r="F91" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" s="24"/>
+      <c r="H91" s="96"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -3808,20 +3980,21 @@
     </row>
     <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="80"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H92" s="96"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -3830,605 +4003,647 @@
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H93" s="96"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="52"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H94" s="96"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>201</v>
+      <c r="B95" s="73"/>
+      <c r="C95" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" s="67" t="s">
+        <v>195</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G95" s="43"/>
+        <v>196</v>
+      </c>
+      <c r="G95" s="67"/>
+      <c r="H95" s="96"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="44"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="69"/>
       <c r="F96" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G96" s="45"/>
-    </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="G96" s="68"/>
+      <c r="H96" s="96"/>
+    </row>
+    <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="43" t="s">
-        <v>204</v>
+      <c r="B97" s="73"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="67" t="s">
+        <v>198</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G97" s="45"/>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="G97" s="68"/>
+      <c r="H97" s="96"/>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="44"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="69"/>
       <c r="F98" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G98" s="44"/>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G98" s="69"/>
+      <c r="H98" s="96"/>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="51"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="96"/>
+    </row>
+    <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="96"/>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="96"/>
+    </row>
+    <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="67"/>
+      <c r="H102" s="96"/>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="68"/>
+      <c r="H103" s="96"/>
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" s="68"/>
+      <c r="H104" s="96"/>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G105" s="68"/>
+      <c r="H105" s="96"/>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" s="69"/>
+      <c r="H106" s="96"/>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H107" s="96"/>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H108" s="96"/>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="96"/>
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H110" s="96"/>
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H111" s="96"/>
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="96"/>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" s="67"/>
+      <c r="H113" s="96"/>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G114" s="68"/>
+      <c r="H114" s="96"/>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G115" s="68"/>
+      <c r="H115" s="96"/>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="43"/>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="45"/>
-    </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="45"/>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="45"/>
-    </row>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" s="44"/>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G112" s="7"/>
-    </row>
-    <row r="113" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="43" t="s">
+      <c r="G116" s="69"/>
+      <c r="H116" s="96"/>
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G113" s="43"/>
-    </row>
-    <row r="114" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="7" t="s">
+      <c r="H117" s="96"/>
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G114" s="45"/>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
-      <c r="E115" s="43" t="s">
+      <c r="G118" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="H118" s="96"/>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G115" s="45"/>
-    </row>
-    <row r="116" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G116" s="44"/>
-    </row>
-    <row r="117" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="H119" s="96"/>
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="F120" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G118" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="96"/>
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="41"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G121" s="7"/>
-    </row>
-    <row r="122" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="96"/>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D122" s="50" t="s">
-        <v>82</v>
+      <c r="B122" s="73"/>
+      <c r="C122" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G122" s="43"/>
-    </row>
-    <row r="123" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G122" s="67"/>
+      <c r="H122" s="96"/>
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="48" t="s">
-        <v>59</v>
+      <c r="B123" s="73"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G123" s="45"/>
-    </row>
-    <row r="124" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G123" s="68"/>
+      <c r="H123" s="96"/>
+    </row>
+    <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="49"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="71"/>
       <c r="F124" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G124" s="45"/>
-    </row>
-    <row r="125" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="68"/>
+      <c r="H124" s="96"/>
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="48" t="s">
-        <v>60</v>
+      <c r="B125" s="73"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="45"/>
-    </row>
-    <row r="126" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="68"/>
+      <c r="H125" s="96"/>
+    </row>
+    <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="49"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="71"/>
       <c r="F126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G126" s="44"/>
-    </row>
-    <row r="127" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G126" s="69"/>
+      <c r="H126" s="96"/>
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E127" s="48" t="s">
-        <v>265</v>
+      <c r="B127" s="73"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="59" t="s">
+        <v>259</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H127" s="96"/>
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="53"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="60"/>
       <c r="F128" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H128" s="96"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="53"/>
+      <c r="B129" s="73"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="60"/>
       <c r="F129" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H129" s="96"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="49"/>
+      <c r="B130" s="73"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="71"/>
       <c r="F130" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H130" s="96"/>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="54"/>
+      <c r="B131" s="73"/>
+      <c r="C131" s="70"/>
       <c r="D131" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H131" s="96"/>
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="54"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="70"/>
       <c r="D132" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G132" s="7"/>
+      <c r="H132" s="96"/>
     </row>
     <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D133" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E133" s="48" t="s">
-        <v>266</v>
+      <c r="B133" s="73"/>
+      <c r="C133" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="59" t="s">
+        <v>260</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G133" s="48" t="s">
-        <v>110</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G133" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H133" s="96"/>
     </row>
     <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="48"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
       <c r="F134" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G134" s="48"/>
+        <v>107</v>
+      </c>
+      <c r="G134" s="59"/>
+      <c r="H134" s="96"/>
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
@@ -4437,14 +4652,15 @@
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="48"/>
+      <c r="B135" s="73"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="59"/>
       <c r="F135" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G135" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="G135" s="59"/>
+      <c r="H135" s="96"/>
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
@@ -4453,14 +4669,15 @@
     </row>
     <row r="136" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="74"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="85"/>
       <c r="F136" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G136" s="74"/>
+        <v>109</v>
+      </c>
+      <c r="G136" s="85"/>
+      <c r="H136" s="96"/>
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
@@ -4469,158 +4686,169 @@
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D137" s="42" t="s">
+      <c r="B137" s="73"/>
+      <c r="C137" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="E137" s="43" t="s">
-        <v>176</v>
+      <c r="D137" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" s="67" t="s">
+        <v>170</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G137" s="43"/>
+        <v>171</v>
+      </c>
+      <c r="G137" s="67"/>
+      <c r="H137" s="96"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="44"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="87"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="69"/>
       <c r="F138" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G138" s="45"/>
+        <v>172</v>
+      </c>
+      <c r="G138" s="68"/>
+      <c r="H138" s="96"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="43" t="s">
-        <v>179</v>
+      <c r="B139" s="73"/>
+      <c r="C139" s="87"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="67" t="s">
+        <v>173</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G139" s="45"/>
+        <v>174</v>
+      </c>
+      <c r="G139" s="68"/>
+      <c r="H139" s="96"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="44"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="87"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="69"/>
       <c r="F140" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G140" s="44"/>
+        <v>175</v>
+      </c>
+      <c r="G140" s="69"/>
+      <c r="H140" s="96"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E141" s="43" t="s">
-        <v>267</v>
+      <c r="B141" s="73"/>
+      <c r="C141" s="87"/>
+      <c r="D141" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="67" t="s">
+        <v>261</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H141" s="96"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="45"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="87"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="68"/>
       <c r="F142" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H142" s="96"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="45"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="87"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="68"/>
       <c r="F143" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>187</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="H143" s="96"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="45"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="87"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="68"/>
       <c r="F144" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H144" s="96"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="73"/>
+      <c r="C145" s="87"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H145" s="96"/>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="87"/>
+      <c r="D146" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H146" s="96"/>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="47"/>
-      <c r="D147" s="21" t="s">
+      <c r="F147" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G147" s="7"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="96"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
@@ -4629,7 +4857,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
@@ -4638,7 +4866,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
@@ -4647,7 +4875,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
@@ -4656,7 +4884,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
@@ -4665,7 +4893,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
@@ -4674,7 +4902,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
@@ -4683,7 +4911,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
@@ -4692,7 +4920,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
@@ -4701,7 +4929,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -4710,7 +4938,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
@@ -4719,7 +4947,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
@@ -4728,7 +4956,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
@@ -11372,36 +11600,42 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D74:D91"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B66:C92"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="C122:C132"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B93:B147"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E141:E145"/>
+    <mergeCell ref="C137:C147"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D141:D145"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="G133:G136"/>
     <mergeCell ref="B4:B65"/>
     <mergeCell ref="D47:D51"/>
     <mergeCell ref="C47:C55"/>
@@ -11417,51 +11651,45 @@
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="C122:C132"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D74:D91"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B66:C92"/>
+    <mergeCell ref="D66:D73"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="C137:C147"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="B93:B147"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E141:E145"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -875,10 +875,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/agreePage</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/inquiry/inquiryDetails</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1698,6 +1694,10 @@
   </si>
   <si>
     <t>ReservationAgreePage</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reservationAgreePage</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2171,22 +2171,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,26 +2207,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2225,7 +2216,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2246,15 +2317,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,94 +2335,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2586,8 +2586,8 @@
   </sheetPr>
   <dimension ref="A1:M934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2599,30 +2599,30 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="92"/>
+    <col min="8" max="8" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2644,235 +2644,235 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="95" t="s">
-        <v>286</v>
+      <c r="H3" s="34" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="96"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="42" t="s">
-        <v>235</v>
+      <c r="B5" s="64"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
+        <v>234</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="96"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="96"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="42" t="s">
-        <v>277</v>
+      <c r="B7" s="64"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="96"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="96"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>276</v>
+      <c r="E9" s="91" t="s">
+        <v>275</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="96"/>
+        <v>235</v>
+      </c>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="96"/>
+        <v>236</v>
+      </c>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="96"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="96"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="96"/>
+        <v>241</v>
+      </c>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="96"/>
+        <v>242</v>
+      </c>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="96"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="96"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="H17" s="96"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="H18" s="96"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>252</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>253</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>15</v>
@@ -2880,12 +2880,12 @@
       <c r="G19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="29" t="s">
         <v>17</v>
       </c>
@@ -2896,15 +2896,15 @@
         <v>19</v>
       </c>
       <c r="G20" s="26"/>
-      <c r="H20" s="96"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="76" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2913,69 +2913,69 @@
       <c r="F21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="96"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="80" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="73" t="s">
         <v>150</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="96"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="96"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="80" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="73" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="96"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="96"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="94" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
@@ -2984,40 +2984,40 @@
       <c r="G26" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="96"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="38"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="H28" s="96"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="12" t="s">
         <v>14</v>
       </c>
@@ -3030,12 +3030,12 @@
       <c r="G29" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="96"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
@@ -3046,72 +3046,72 @@
         <v>28</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="96"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="54" t="s">
         <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="96"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="71"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="96"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="59" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="54" t="s">
         <v>155</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="96"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="71"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="96"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="58" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="54" t="s">
         <v>154</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -3120,26 +3120,26 @@
       <c r="G35" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H35" s="96"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="71"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="96"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="9" t="s">
         <v>77</v>
       </c>
@@ -3152,12 +3152,12 @@
       <c r="G37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="96"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="9" t="s">
         <v>97</v>
       </c>
@@ -3168,100 +3168,100 @@
         <v>104</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="96"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="44" t="s">
+      <c r="B39" s="64"/>
+      <c r="C39" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="54" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="96"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="71"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="96"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="59" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="54" t="s">
         <v>142</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="96"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="71"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="96"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="58" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="54" t="s">
         <v>143</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" s="96"/>
+        <v>284</v>
+      </c>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="60"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H44" s="96"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="9" t="s">
         <v>77</v>
       </c>
@@ -3274,12 +3274,12 @@
       <c r="G45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="96"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="84"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3290,51 +3290,51 @@
         <v>140</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="96"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="75" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="96"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="77" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="68" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="91"/>
-      <c r="H48" s="96"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="78"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="91"/>
-      <c r="H49" s="96"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3343,17 +3343,17 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="78" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="69" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3362,33 +3362,33 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="77"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="91"/>
-      <c r="H51" s="96"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="56" t="s">
+      <c r="B52" s="64"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="71" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H52" s="96"/>
+        <v>288</v>
+      </c>
+      <c r="H52" s="35"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -3397,17 +3397,17 @@
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="79"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="96"/>
+      <c r="H53" s="35"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -3416,28 +3416,28 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="76"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>284</v>
-      </c>
       <c r="G54" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H54" s="36" t="s">
         <v>287</v>
-      </c>
-      <c r="H54" s="97" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="76"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="17" t="s">
         <v>17</v>
       </c>
@@ -3448,15 +3448,15 @@
         <v>73</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="96"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="79" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -3465,8 +3465,8 @@
       <c r="F56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="96"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3475,17 +3475,17 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="51" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="70" t="s">
         <v>115</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="96"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3494,15 +3494,15 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="51"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="96"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3511,17 +3511,17 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="51" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="70" t="s">
         <v>118</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="96"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="35"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -3530,15 +3530,15 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="51"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="96"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="35"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -3547,12 +3547,12 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="82" t="s">
+      <c r="B61" s="64"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="70" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3561,7 +3561,7 @@
       <c r="G61" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="96"/>
+      <c r="H61" s="35"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -3570,36 +3570,36 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="51"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="96"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="51"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H63" s="96"/>
+        <v>166</v>
+      </c>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="55"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="20" t="s">
         <v>128</v>
       </c>
@@ -3612,12 +3612,12 @@
       <c r="G64" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="96"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="55"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="80"/>
       <c r="D65" s="21" t="s">
         <v>17</v>
       </c>
@@ -3628,333 +3628,333 @@
         <v>132</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="96"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="54" t="s">
+      <c r="C66" s="84"/>
+      <c r="D66" s="79" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="96"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="54"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="96"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="72"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="96"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="51" t="s">
-        <v>228</v>
+      <c r="B69" s="85"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="96"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="96"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="51" t="s">
-        <v>229</v>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="70" t="s">
+        <v>228</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="96"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
       <c r="F72" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G72" s="7"/>
-      <c r="H72" s="96"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
       <c r="F73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G73" s="23"/>
-      <c r="H73" s="96"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="54" t="s">
+      <c r="B74" s="85"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="67" t="s">
-        <v>267</v>
+      <c r="E74" s="49" t="s">
+        <v>266</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" s="96"/>
+        <v>272</v>
+      </c>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="68"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="96"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="68"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H76" s="96"/>
+        <v>273</v>
+      </c>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="68"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="H77" s="96"/>
+        <v>274</v>
+      </c>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="68"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="96"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="68"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="96"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="68"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G80" s="30"/>
-      <c r="H80" s="96"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="69"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G81" s="24"/>
-      <c r="H81" s="96"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="67" t="s">
-        <v>270</v>
+      <c r="B82" s="85"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="49" t="s">
+        <v>269</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="96"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="30" t="s">
         <v>44</v>
       </c>
       <c r="G83" s="30"/>
-      <c r="H83" s="96"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="68"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="96"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="68"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G85" s="7"/>
-      <c r="H85" s="96"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="68"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="96"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="68"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G87" s="8"/>
-      <c r="H87" s="96"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="68"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G88" s="8"/>
-      <c r="H88" s="96"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="68"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G89" s="8"/>
-      <c r="H89" s="96"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="68"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G90" s="7"/>
-      <c r="H90" s="96"/>
+      <c r="H90" s="35"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -3963,15 +3963,15 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="69"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="50"/>
       <c r="F91" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G91" s="24"/>
-      <c r="H91" s="96"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="88"/>
       <c r="D92" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>45</v>
@@ -3994,7 +3994,7 @@
       <c r="G92" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="96"/>
+      <c r="H92" s="35"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="61" t="s">
         <v>133</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -4019,14 +4019,14 @@
         <v>76</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H93" s="96"/>
+        <v>168</v>
+      </c>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="45"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="9" t="s">
         <v>77</v>
       </c>
@@ -4039,104 +4039,104 @@
       <c r="G94" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H94" s="96"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="44" t="s">
+      <c r="B95" s="39"/>
+      <c r="C95" s="61" t="s">
         <v>134</v>
       </c>
       <c r="D95" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="67" t="s">
+      <c r="F95" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G95" s="67"/>
-      <c r="H95" s="96"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="69"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="50"/>
       <c r="F96" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="68"/>
-      <c r="H96" s="96"/>
+        <v>196</v>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="67" t="s">
+      <c r="B97" s="39"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G97" s="68"/>
-      <c r="H97" s="96"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="69"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="50"/>
       <c r="F98" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="96"/>
+        <v>199</v>
+      </c>
+      <c r="G98" s="50"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="47"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H99" s="96"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="47"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="96"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="45"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="21" t="s">
         <v>17</v>
       </c>
@@ -4144,145 +4144,145 @@
         <v>51</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G101" s="7"/>
-      <c r="H101" s="96"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="70" t="s">
+      <c r="B102" s="39"/>
+      <c r="C102" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="58" t="s">
+      <c r="D102" s="56" t="s">
         <v>78</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="67"/>
-      <c r="H102" s="96"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="73"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="59" t="s">
+      <c r="B103" s="39"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="54" t="s">
         <v>80</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="68"/>
-      <c r="H103" s="96"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="71"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="55"/>
       <c r="F104" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="68"/>
-      <c r="H104" s="96"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="59" t="s">
+      <c r="B105" s="39"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="54" t="s">
         <v>83</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G105" s="68"/>
-      <c r="H105" s="96"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="71"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="55"/>
       <c r="F106" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G106" s="69"/>
-      <c r="H106" s="96"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="35"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="58" t="s">
+      <c r="B107" s="39"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="54" t="s">
         <v>86</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H107" s="96"/>
+        <v>167</v>
+      </c>
+      <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="60"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="59"/>
       <c r="F108" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H108" s="96"/>
+      <c r="H108" s="35"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="60"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H109" s="96"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="71"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="55"/>
       <c r="F110" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H110" s="96"/>
+      <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="70"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="9" t="s">
         <v>77</v>
       </c>
@@ -4295,12 +4295,12 @@
       <c r="G111" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="96"/>
+      <c r="H111" s="35"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="70"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="9" t="s">
         <v>97</v>
       </c>
@@ -4311,132 +4311,132 @@
         <v>98</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="96"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="86" t="s">
-        <v>225</v>
+      <c r="B113" s="39"/>
+      <c r="C113" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="D113" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="67" t="s">
+      <c r="E113" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G113" s="67"/>
-      <c r="H113" s="96"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="69"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="50"/>
       <c r="F114" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G114" s="68"/>
-      <c r="H114" s="96"/>
+        <v>210</v>
+      </c>
+      <c r="G114" s="51"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="67" t="s">
+      <c r="B115" s="39"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G115" s="68"/>
-      <c r="H115" s="96"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="69"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="50"/>
       <c r="F116" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G116" s="69"/>
-      <c r="H116" s="96"/>
+        <v>213</v>
+      </c>
+      <c r="G116" s="50"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="49"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="67" t="s">
-        <v>258</v>
+      <c r="E117" s="49" t="s">
+        <v>257</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H117" s="96"/>
+      <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="68"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="51"/>
       <c r="F118" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H118" s="96"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="69"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="50"/>
       <c r="F119" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H119" s="96"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E120" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="G120" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H120" s="96"/>
+        <v>223</v>
+      </c>
+      <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="50"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="21" t="s">
         <v>17</v>
       </c>
@@ -4444,90 +4444,90 @@
         <v>51</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G121" s="7"/>
-      <c r="H121" s="96"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="70" t="s">
+      <c r="B122" s="39"/>
+      <c r="C122" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="56" t="s">
         <v>78</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G122" s="67"/>
-      <c r="H122" s="96"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="59" t="s">
+      <c r="B123" s="39"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="54" t="s">
         <v>58</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G123" s="68"/>
-      <c r="H123" s="96"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="35"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="71"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="55"/>
       <c r="F124" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G124" s="68"/>
-      <c r="H124" s="96"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="59" t="s">
+      <c r="B125" s="39"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="54" t="s">
         <v>59</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="68"/>
-      <c r="H125" s="96"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="71"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="55"/>
       <c r="F126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G126" s="69"/>
-      <c r="H126" s="96"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="70"/>
-      <c r="D127" s="58" t="s">
+      <c r="B127" s="39"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="59" t="s">
-        <v>259</v>
+      <c r="E127" s="54" t="s">
+        <v>258</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>35</v>
@@ -4535,54 +4535,54 @@
       <c r="G127" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H127" s="96"/>
+      <c r="H127" s="35"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="60"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="59"/>
       <c r="F128" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H128" s="96"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="60"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="59"/>
       <c r="F129" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H129" s="96"/>
+      <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="71"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="55"/>
       <c r="F130" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H130" s="96"/>
+      <c r="H130" s="35"/>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="73"/>
-      <c r="C131" s="70"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="9" t="s">
         <v>77</v>
       </c>
@@ -4595,12 +4595,12 @@
       <c r="G131" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H131" s="96"/>
+      <c r="H131" s="35"/>
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="73"/>
-      <c r="C132" s="70"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="60"/>
       <c r="D132" s="9" t="s">
         <v>97</v>
       </c>
@@ -4611,39 +4611,39 @@
         <v>104</v>
       </c>
       <c r="G132" s="7"/>
-      <c r="H132" s="96"/>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="73"/>
-      <c r="C133" s="44" t="s">
+      <c r="B133" s="39"/>
+      <c r="C133" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D133" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="59" t="s">
-        <v>260</v>
+      <c r="E133" s="54" t="s">
+        <v>259</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G133" s="59" t="s">
+      <c r="G133" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="H133" s="96"/>
+      <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="73"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="59"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="54"/>
       <c r="F134" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G134" s="59"/>
-      <c r="H134" s="96"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="35"/>
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
@@ -4652,15 +4652,15 @@
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="73"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="54"/>
       <c r="F135" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G135" s="59"/>
-      <c r="H135" s="96"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="35"/>
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
@@ -4669,15 +4669,15 @@
     </row>
     <row r="136" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="73"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="85"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="63"/>
       <c r="F136" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G136" s="85"/>
-      <c r="H136" s="96"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="35"/>
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
@@ -4686,167 +4686,167 @@
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="73"/>
-      <c r="C137" s="86" t="s">
-        <v>192</v>
+      <c r="B137" s="39"/>
+      <c r="C137" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E137" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F137" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" s="67"/>
-      <c r="H137" s="96"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="73"/>
-      <c r="C138" s="87"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="69"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="50"/>
       <c r="F138" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G138" s="68"/>
-      <c r="H138" s="96"/>
+        <v>171</v>
+      </c>
+      <c r="G138" s="51"/>
+      <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="73"/>
-      <c r="C139" s="87"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="67" t="s">
+      <c r="B139" s="39"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G139" s="68"/>
-      <c r="H139" s="96"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="69"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G140" s="69"/>
-      <c r="H140" s="96"/>
+        <v>174</v>
+      </c>
+      <c r="G140" s="50"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="73"/>
-      <c r="C141" s="87"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E141" s="67" t="s">
-        <v>261</v>
+      <c r="E141" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H141" s="96"/>
+      <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="73"/>
-      <c r="C142" s="87"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="68"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H142" s="96"/>
+      <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="73"/>
-      <c r="C143" s="87"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="68"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="51"/>
       <c r="F143" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H143" s="96"/>
+      <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="87"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="68"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="51"/>
       <c r="F144" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H144" s="96"/>
+      <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="87"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="69"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="50"/>
       <c r="F145" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H145" s="96"/>
+        <v>183</v>
+      </c>
+      <c r="H145" s="35"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="87"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="52"/>
       <c r="D146" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H146" s="96"/>
+      <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="73"/>
-      <c r="C147" s="88"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="53"/>
       <c r="D147" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="F147" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G147" s="7"/>
-      <c r="H147" s="96"/>
+      <c r="H147" s="35"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
@@ -11600,6 +11600,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D74:D91"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B66:C92"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B4:B65"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="C122:C132"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D141:D145"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E127:E130"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B93:B147"/>
     <mergeCell ref="D4:D8"/>
@@ -11616,80 +11690,6 @@
     <mergeCell ref="E139:E140"/>
     <mergeCell ref="E141:E145"/>
     <mergeCell ref="C137:C147"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="B4:B65"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="C122:C132"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D74:D91"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B66:C92"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G31:G34"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
   <si>
     <r>
       <rPr>
@@ -753,10 +753,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>com.camflex.client.product.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>notice
  (공지사항)</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1634,10 +1630,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/product/productList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1698,6 +1690,18 @@
   </si>
   <si>
     <t>/reservationAgreePage</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/productList</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.camflex.client.product.controller</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2183,32 +2187,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2216,95 +2226,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2315,6 +2237,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,10 +2260,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,17 +2327,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2586,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:M934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2604,25 +2608,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2645,234 +2649,234 @@
         <v>5</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
-        <v>234</v>
+      <c r="B5" s="50"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="37" t="s">
+        <v>233</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
-        <v>276</v>
+      <c r="B7" s="50"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="37" t="s">
+        <v>275</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>275</v>
+      <c r="E9" s="82" t="s">
+        <v>274</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="92"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="92"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="92"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="92"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="92"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="92"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="92"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>246</v>
       </c>
       <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="92"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>250</v>
       </c>
       <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>251</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>252</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>15</v>
@@ -2884,8 +2888,8 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="29" t="s">
         <v>17</v>
       </c>
@@ -2900,142 +2904,142 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="77" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="79" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="73" t="s">
-        <v>150</v>
+      <c r="B22" s="50"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="74"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="73" t="s">
-        <v>149</v>
+      <c r="B24" s="50"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67" t="s">
+        <v>148</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="74"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="74"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="95"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="96"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>278</v>
       </c>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="77"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
@@ -3050,119 +3054,119 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="61" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>156</v>
+      <c r="E31" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="70"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="70"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="54" t="s">
-        <v>155</v>
+      <c r="B33" s="50"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="56" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="54" t="s">
-        <v>154</v>
+      <c r="E35" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="55"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>104</v>
@@ -3172,114 +3176,114 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="61" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="39" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="51"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="55"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="51"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="54" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="39" t="s">
         <v>142</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="51"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="55"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="50"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="56" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="39" t="s">
         <v>143</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="59"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="89"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3294,46 +3298,46 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="66" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="73" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="97"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="68" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="76" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="97"/>
+        <v>147</v>
+      </c>
+      <c r="G48" s="38"/>
       <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="69"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="97"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="35"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3343,16 +3347,16 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="69" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="77" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="97"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="35"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3362,31 +3366,31 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="68"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="97"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="81" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="65" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52"/>
@@ -3397,15 +3401,15 @@
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="72"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53"/>
@@ -3416,28 +3420,28 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="67"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>283</v>
-      </c>
       <c r="G54" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="75"/>
       <c r="D55" s="17" t="s">
         <v>17</v>
       </c>
@@ -3452,11 +3456,11 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="79" t="s">
+      <c r="B56" s="50"/>
+      <c r="C56" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -3465,7 +3469,7 @@
       <c r="F56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="70"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="35"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -3475,16 +3479,16 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="70" t="s">
+      <c r="B57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="42" t="s">
         <v>115</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="70"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="35"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -3494,14 +3498,14 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="70"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="70"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="35"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -3511,16 +3515,16 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="70" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="42" t="s">
         <v>118</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="70"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="35"/>
       <c r="I59"/>
       <c r="J59"/>
@@ -3530,14 +3534,14 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="70"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="70"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="35"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -3547,12 +3551,12 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="75" t="s">
+      <c r="B61" s="50"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="E61" s="42" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3570,10 +3574,10 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="70"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="7" t="s">
         <v>125</v>
       </c>
@@ -3584,22 +3588,22 @@
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="70"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="80"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="20" t="s">
         <v>128</v>
       </c>
@@ -3616,8 +3620,8 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="21" t="s">
         <v>17</v>
       </c>
@@ -3632,15 +3636,15 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="79" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="51" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>38</v>
@@ -3650,25 +3654,25 @@
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="79"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="64"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>39</v>
@@ -3678,11 +3682,11 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="70" t="s">
-        <v>227</v>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="42" t="s">
+        <v>226</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>40</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
@@ -3704,11 +3708,11 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="70" t="s">
-        <v>228</v>
+      <c r="B71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="42" t="s">
+        <v>227</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>42</v>
@@ -3718,10 +3722,10 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="6" t="s">
         <v>68</v>
       </c>
@@ -3730,10 +3734,10 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
       <c r="F73" s="7" t="s">
         <v>43</v>
       </c>
@@ -3742,28 +3746,28 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="79" t="s">
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>266</v>
+      <c r="E74" s="88" t="s">
+        <v>265</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="51"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="7" t="s">
         <v>44</v>
       </c>
@@ -3772,62 +3776,62 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="51"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="63"/>
       <c r="F76" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="51"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="51"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="63"/>
       <c r="F78" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="51"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="51"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="6" t="s">
         <v>67</v>
       </c>
@@ -3836,10 +3840,10 @@
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="50"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="64"/>
       <c r="F81" s="6" t="s">
         <v>55</v>
       </c>
@@ -3848,11 +3852,11 @@
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="49" t="s">
-        <v>269</v>
+      <c r="B82" s="58"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="88" t="s">
+        <v>268</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>54</v>
@@ -3862,10 +3866,10 @@
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="51"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="63"/>
       <c r="F83" s="30" t="s">
         <v>44</v>
       </c>
@@ -3874,82 +3878,82 @@
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="51"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G84" s="30"/>
       <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="51"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="63"/>
       <c r="F85" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="51"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="51"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="63"/>
       <c r="F87" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="51"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="63"/>
       <c r="F88" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="51"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="51"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="6" t="s">
         <v>67</v>
       </c>
@@ -3963,10 +3967,10 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="50"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="64"/>
       <c r="F91" s="6" t="s">
         <v>55</v>
       </c>
@@ -3980,13 +3984,13 @@
     </row>
     <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="87"/>
-      <c r="C92" s="88"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>45</v>
@@ -4003,10 +4007,10 @@
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="61" t="s">
+      <c r="C93" s="43" t="s">
         <v>133</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -4019,14 +4023,14 @@
         <v>76</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="58"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="9" t="s">
         <v>77</v>
       </c>
@@ -4043,100 +4047,100 @@
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="61" t="s">
+      <c r="B95" s="72"/>
+      <c r="C95" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="F95" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G95" s="49"/>
+      <c r="G95" s="88"/>
       <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="50"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="64"/>
       <c r="F96" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G96" s="51"/>
+        <v>195</v>
+      </c>
+      <c r="G96" s="63"/>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="49" t="s">
+      <c r="B97" s="72"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G97" s="51"/>
+      <c r="G97" s="63"/>
       <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="50"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="64"/>
       <c r="F98" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G98" s="50"/>
+        <v>198</v>
+      </c>
+      <c r="G98" s="64"/>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="57"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="46"/>
       <c r="D99" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="57"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="58"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="21" t="s">
         <v>17</v>
       </c>
@@ -4144,105 +4148,105 @@
         <v>51</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="60" t="s">
+      <c r="B102" s="72"/>
+      <c r="C102" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="55" t="s">
         <v>78</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="49"/>
+      <c r="G102" s="88"/>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="54" t="s">
+      <c r="B103" s="72"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="39" t="s">
         <v>80</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="51"/>
+      <c r="G103" s="63"/>
       <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="55"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="51"/>
+      <c r="G104" s="63"/>
       <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="54" t="s">
+      <c r="B105" s="72"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G105" s="51"/>
+      <c r="G105" s="63"/>
       <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="55"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G106" s="50"/>
+      <c r="G106" s="64"/>
       <c r="H106" s="35"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="56" t="s">
+      <c r="B107" s="72"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="54" t="s">
+      <c r="E107" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="59"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="7" t="s">
         <v>88</v>
       </c>
@@ -4253,10 +4257,10 @@
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="59"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="7" t="s">
         <v>90</v>
       </c>
@@ -4267,10 +4271,10 @@
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="55"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="41"/>
       <c r="F110" s="7" t="s">
         <v>92</v>
       </c>
@@ -4281,8 +4285,8 @@
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="60"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="9" t="s">
         <v>77</v>
       </c>
@@ -4299,8 +4303,8 @@
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="60"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="9" t="s">
         <v>97</v>
       </c>
@@ -4315,128 +4319,128 @@
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="48" t="s">
+      <c r="B113" s="72"/>
+      <c r="C113" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="49" t="s">
+      <c r="E113" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G113" s="49"/>
+      <c r="G113" s="88"/>
       <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="50"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="64"/>
       <c r="F114" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G114" s="51"/>
+        <v>209</v>
+      </c>
+      <c r="G114" s="63"/>
       <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="49" t="s">
+      <c r="B115" s="72"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G115" s="51"/>
+      <c r="G115" s="63"/>
       <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="50"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="64"/>
       <c r="F116" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G116" s="50"/>
+        <v>212</v>
+      </c>
+      <c r="G116" s="64"/>
       <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="48" t="s">
+      <c r="B117" s="72"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="49" t="s">
-        <v>257</v>
+      <c r="E117" s="88" t="s">
+        <v>256</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="51"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="63"/>
       <c r="F118" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="50"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="64"/>
       <c r="F119" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="46"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E120" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="G120" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="47"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="21" t="s">
         <v>17</v>
       </c>
@@ -4444,90 +4448,90 @@
         <v>51</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="60" t="s">
+      <c r="B122" s="72"/>
+      <c r="C122" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="55" t="s">
         <v>78</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G122" s="49"/>
+      <c r="G122" s="88"/>
       <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="54" t="s">
+      <c r="B123" s="72"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G123" s="51"/>
+      <c r="G123" s="63"/>
       <c r="H123" s="35"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="55"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="41"/>
       <c r="F124" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G124" s="51"/>
+      <c r="G124" s="63"/>
       <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="54" t="s">
+      <c r="B125" s="72"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="51"/>
+      <c r="G125" s="63"/>
       <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="55"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="41"/>
       <c r="F126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G126" s="50"/>
+      <c r="G126" s="64"/>
       <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="56" t="s">
+      <c r="B127" s="72"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="54" t="s">
-        <v>258</v>
+      <c r="E127" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>35</v>
@@ -4539,10 +4543,10 @@
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="59"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="40"/>
       <c r="F128" s="7" t="s">
         <v>34</v>
       </c>
@@ -4553,10 +4557,10 @@
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="59"/>
+      <c r="B129" s="72"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="40"/>
       <c r="F129" s="7" t="s">
         <v>100</v>
       </c>
@@ -4567,10 +4571,10 @@
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="55"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="41"/>
       <c r="F130" s="7" t="s">
         <v>102</v>
       </c>
@@ -4581,8 +4585,8 @@
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="60"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="9" t="s">
         <v>77</v>
       </c>
@@ -4599,8 +4603,8 @@
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="60"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="9" t="s">
         <v>97</v>
       </c>
@@ -4615,34 +4619,34 @@
     </row>
     <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="61" t="s">
+      <c r="B133" s="72"/>
+      <c r="C133" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="54" t="s">
-        <v>259</v>
+      <c r="E133" s="39" t="s">
+        <v>258</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G133" s="54" t="s">
+      <c r="G133" s="39" t="s">
         <v>106</v>
       </c>
       <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="54"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G134" s="54"/>
+      <c r="G134" s="39"/>
       <c r="H134" s="35"/>
       <c r="I134"/>
       <c r="J134"/>
@@ -4652,14 +4656,14 @@
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="54"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="39"/>
       <c r="F135" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G135" s="54"/>
+      <c r="G135" s="39"/>
       <c r="H135" s="35"/>
       <c r="I135"/>
       <c r="J135"/>
@@ -4669,14 +4673,14 @@
     </row>
     <row r="136" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="63"/>
+      <c r="B136" s="72"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="91"/>
+      <c r="E136" s="89"/>
       <c r="F136" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G136" s="63"/>
+      <c r="G136" s="89"/>
       <c r="H136" s="35"/>
       <c r="I136"/>
       <c r="J136"/>
@@ -4686,164 +4690,164 @@
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="E137" s="49" t="s">
+      <c r="B137" s="72"/>
+      <c r="C137" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E137" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137" s="49"/>
+      <c r="G137" s="88"/>
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="50"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="64"/>
       <c r="F138" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G138" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="G138" s="63"/>
       <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="49" t="s">
+      <c r="B139" s="72"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" s="51"/>
+      <c r="G139" s="63"/>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="47"/>
-      <c r="E140" s="50"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="64"/>
       <c r="F140" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G140" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="G140" s="64"/>
       <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="48" t="s">
+      <c r="B141" s="72"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E141" s="49" t="s">
-        <v>260</v>
+      <c r="E141" s="88" t="s">
+        <v>259</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="51"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="63"/>
       <c r="F142" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="51"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="63"/>
       <c r="F143" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="51"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="63"/>
       <c r="F144" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="47"/>
-      <c r="E145" s="50"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="64"/>
       <c r="F145" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H145" s="35"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="52"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="96"/>
       <c r="D146" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="53"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="97"/>
       <c r="D147" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="F147" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="35"/>
@@ -11600,80 +11604,6 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D74:D91"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B66:C92"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="B4:B65"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="C122:C132"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E127:E130"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B93:B147"/>
     <mergeCell ref="D4:D8"/>
@@ -11690,6 +11620,80 @@
     <mergeCell ref="E139:E140"/>
     <mergeCell ref="E141:E145"/>
     <mergeCell ref="C137:C147"/>
+    <mergeCell ref="D141:D145"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="C122:C132"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B66:C92"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="B4:B65"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D74:D91"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G39:G42"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
   <si>
     <r>
       <rPr>
@@ -851,10 +851,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/notice/noticeList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/notice/noticeDetail</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1264,71 +1260,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>useInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/member/info/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>useInfo</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancellFeeInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/member/info/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cancellFeeInfo</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>personalInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/info/personalInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>adultInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/member/info/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>adultInfo</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>control</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1702,6 +1633,18 @@
   </si>
   <si>
     <t>com.camflex.client.product.controller</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeController</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/noticeList</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.xml</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1895,6 +1838,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1904,7 +1848,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,6 +1870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2085,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2187,6 +2137,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2203,6 +2180,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2263,31 +2246,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2300,40 +2258,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,6 +2320,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2588,10 +2577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M934"/>
+  <dimension ref="A1:M930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2608,25 +2597,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2649,2210 +2638,2190 @@
         <v>5</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="37" t="s">
-        <v>233</v>
+      <c r="B5" s="61"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="46" t="s">
+        <v>232</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="37" t="s">
-        <v>275</v>
+      <c r="B7" s="61"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="46" t="s">
+        <v>266</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>274</v>
+      <c r="E9" s="43" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="27" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="83"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>237</v>
       </c>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="83"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="27" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="83"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="27" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G14" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="26" t="s">
+        <v>242</v>
+      </c>
       <c r="F15" s="26" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>245</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" s="26"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>247</v>
-      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="84"/>
       <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="81"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>249</v>
-      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="80"/>
       <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="81"/>
-      <c r="D19" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="80"/>
       <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="81"/>
-      <c r="D20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="26"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="80"/>
       <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="67"/>
+        <v>23</v>
+      </c>
+      <c r="G21" s="80"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67" t="s">
-        <v>149</v>
+      <c r="B22" s="61"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="68"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="68"/>
+        <v>26</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="68"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>268</v>
+      </c>
       <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="F25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>24</v>
+      <c r="B26" s="61"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="104"/>
       <c r="H27" s="35"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>277</v>
-      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="104"/>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="104"/>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="13"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="104"/>
       <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="42"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>284</v>
+      </c>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="42"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="103" t="s">
+        <v>160</v>
+      </c>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="42"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="103" t="s">
+        <v>161</v>
+      </c>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="42"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="103"/>
       <c r="H34" s="35"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="55" t="s">
+      <c r="B35" s="61"/>
+      <c r="C35" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="9" t="s">
+      <c r="E39" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="9" t="s">
+      <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="35"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="64"/>
+        <v>140</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="35"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="B43" s="61"/>
+      <c r="C43" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="47"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="47"/>
       <c r="H44" s="35"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="B45" s="61"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="47"/>
       <c r="H45" s="35"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="7"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="47"/>
       <c r="H46" s="35"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>280</v>
-      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="G47" s="47"/>
       <c r="H47" s="35"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="38"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="38"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="H49" s="35"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="76"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="F51" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="G51" s="16"/>
       <c r="H51" s="35"/>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>286</v>
-      </c>
+      <c r="B52" s="61"/>
+      <c r="C52" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="51"/>
       <c r="H52" s="35"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-    </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="66"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="51" t="s">
+        <v>115</v>
+      </c>
       <c r="F53" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>288</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G53" s="51"/>
       <c r="H53" s="35"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="61"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="51"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="16"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="51"/>
       <c r="H55" s="35"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="42"/>
+        <v>120</v>
+      </c>
+      <c r="G56" s="51"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="42" t="s">
-        <v>115</v>
+      <c r="B57" s="61"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" s="42"/>
+        <v>123</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="H57" s="35"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="42"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="42"/>
+        <v>125</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="H58" s="35"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="42" t="s">
-        <v>118</v>
-      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="42"/>
+        <v>127</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="H59" s="35"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-    </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="42"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="F60" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="42"/>
+        <v>130</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H60" s="35"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-    </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="42" t="s">
-        <v>122</v>
+      <c r="B61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>124</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="35"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="42"/>
+      <c r="B62" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="68"/>
+      <c r="D62" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>223</v>
+      </c>
       <c r="F62" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>126</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="35"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="42"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="F63" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>165</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G63" s="7"/>
       <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>129</v>
+      <c r="B64" s="69"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>18</v>
+      <c r="B65" s="69"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="51" t="s">
+        <v>225</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>224</v>
-      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="35"/>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="7" t="s">
-        <v>229</v>
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="51" t="s">
+        <v>226</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>39</v>
+      <c r="B68" s="69"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="42" t="s">
-        <v>226</v>
-      </c>
+      <c r="B69" s="69"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
       <c r="F69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G69" s="23"/>
       <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="7"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="42" t="s">
-        <v>227</v>
-      </c>
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="7"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" s="23"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="63"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="7" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="B76" s="69"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" s="30"/>
       <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>273</v>
-      </c>
+      <c r="B77" s="69"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="24"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G78" s="7"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="30"/>
       <c r="H78" s="35"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G79" s="7"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="30"/>
       <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="6" t="s">
-        <v>67</v>
+      <c r="B80" s="69"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="G80" s="30"/>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" s="24"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G81" s="7"/>
       <c r="H81" s="35"/>
     </row>
-    <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="88" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G82" s="30"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G82" s="7"/>
       <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="30"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" s="8"/>
       <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="30"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="8"/>
       <c r="H84" s="35"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G85" s="7"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="7" t="s">
-        <v>270</v>
+      <c r="B86" s="69"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="35"/>
-    </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G87" s="8"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="24"/>
       <c r="H87" s="35"/>
-    </row>
-    <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G88" s="8"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H88" s="35"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G89" s="8"/>
+      <c r="B89" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H89" s="35"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G90" s="7"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H90" s="35"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" s="24"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G91" s="90"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>228</v>
-      </c>
+      <c r="B92" s="74"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G92" s="52"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>48</v>
+      <c r="B93" s="74"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="90" t="s">
+        <v>195</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>167</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G93" s="52"/>
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B94" s="74"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G94" s="53"/>
       <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E95" s="88" t="s">
-        <v>193</v>
+      <c r="B95" s="74"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G95" s="88"/>
+        <v>199</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="64"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="F96" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G96" s="63"/>
+        <v>203</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="88" t="s">
-        <v>196</v>
+      <c r="B97" s="74"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G97" s="63"/>
+        <v>205</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="64"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>269</v>
+      </c>
       <c r="F98" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G98" s="64"/>
+        <v>79</v>
+      </c>
+      <c r="G98" s="90"/>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>199</v>
+      <c r="B99" s="74"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>201</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G99" s="52"/>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="B100" s="74"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="50"/>
       <c r="F100" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G100" s="52"/>
       <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>51</v>
+      <c r="B101" s="74"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G101" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="G101" s="52"/>
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>278</v>
-      </c>
+      <c r="B102" s="74"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="88"/>
+        <v>85</v>
+      </c>
+      <c r="G102" s="53"/>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="39" t="s">
-        <v>80</v>
+      <c r="B103" s="74"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="63"/>
+        <v>87</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G104" s="63"/>
+        <v>88</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="39" t="s">
-        <v>83</v>
-      </c>
+      <c r="B105" s="74"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="49"/>
       <c r="F105" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G105" s="63"/>
+        <v>90</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="41"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="50"/>
       <c r="F106" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G106" s="64"/>
+        <v>92</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H106" s="35"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>86</v>
+      <c r="B107" s="74"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="40"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F108" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="H108" s="35"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="40"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="90" t="s">
+        <v>206</v>
+      </c>
       <c r="F109" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G109" s="90"/>
       <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="41"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G110" s="52"/>
       <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>94</v>
+      <c r="B111" s="74"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="90" t="s">
+        <v>209</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G111" s="52"/>
       <c r="H111" s="35"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="B112" s="74"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="G112" s="53"/>
       <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="88" t="s">
-        <v>207</v>
+      <c r="B113" s="74"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="90" t="s">
+        <v>247</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G113" s="88"/>
+        <v>212</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="64"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="52"/>
       <c r="F114" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G114" s="63"/>
+        <v>214</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="88" t="s">
-        <v>210</v>
-      </c>
+      <c r="B115" s="74"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G115" s="63"/>
+        <v>216</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="64"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="F116" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G116" s="64"/>
+        <v>219</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="88" t="s">
-        <v>256</v>
+      <c r="B117" s="74"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="63"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>270</v>
+      </c>
       <c r="F118" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>216</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G118" s="90"/>
       <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="64"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="F119" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>218</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G119" s="52"/>
       <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="B120" s="74"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="50"/>
       <c r="F120" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>222</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G120" s="52"/>
       <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>51</v>
+      <c r="B121" s="74"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G121" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="G121" s="52"/>
       <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>279</v>
-      </c>
+      <c r="B122" s="74"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="50"/>
       <c r="F122" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="88"/>
+        <v>31</v>
+      </c>
+      <c r="G122" s="53"/>
       <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="90"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="39" t="s">
-        <v>58</v>
+      <c r="B123" s="74"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>248</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" s="63"/>
+        <v>35</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H123" s="35"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="41"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="49"/>
       <c r="F124" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" s="63"/>
+        <v>34</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="90"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="39" t="s">
-        <v>59</v>
-      </c>
+      <c r="B125" s="74"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="49"/>
       <c r="F125" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="63"/>
+        <v>100</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="41"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="50"/>
       <c r="F126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="64"/>
+        <v>102</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="90"/>
-      <c r="D127" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E127" s="39" t="s">
-        <v>257</v>
+      <c r="B127" s="74"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H127" s="35"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="90"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="40"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F128" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G128" s="7"/>
       <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="90"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="40"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>249</v>
+      </c>
       <c r="F129" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="G129" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="90"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="41"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="48"/>
       <c r="F130" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G130" s="48"/>
       <c r="H130" s="35"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B131" s="74"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="66"/>
+      <c r="E131" s="48"/>
       <c r="F131" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G131" s="48"/>
       <c r="H131" s="35"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="B132" s="74"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="91"/>
       <c r="F132" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G132" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="G132" s="91"/>
       <c r="H132" s="35"/>
-    </row>
-    <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D133" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>258</v>
+      <c r="B133" s="74"/>
+      <c r="C133" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E133" s="90" t="s">
+        <v>167</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G133" s="39" t="s">
-        <v>106</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G133" s="90"/>
       <c r="H133" s="35"/>
     </row>
-    <row r="134" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="39"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="53"/>
       <c r="F134" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G134" s="39"/>
+        <v>169</v>
+      </c>
+      <c r="G134" s="52"/>
       <c r="H134" s="35"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-    </row>
-    <row r="135" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="39"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="90" t="s">
+        <v>170</v>
+      </c>
       <c r="F135" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G135" s="39"/>
+        <v>171</v>
+      </c>
+      <c r="G135" s="52"/>
       <c r="H135" s="35"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-    </row>
-    <row r="136" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="72"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="91"/>
-      <c r="E136" s="89"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="98"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G136" s="89"/>
+        <v>172</v>
+      </c>
+      <c r="G136" s="53"/>
       <c r="H136" s="35"/>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="72"/>
-      <c r="C137" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E137" s="88" t="s">
-        <v>168</v>
+      <c r="B137" s="74"/>
+      <c r="C137" s="98"/>
+      <c r="D137" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E137" s="90" t="s">
+        <v>250</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137" s="88"/>
+        <v>173</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="72"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="64"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="98"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="52"/>
       <c r="F138" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G138" s="63"/>
+        <v>175</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="72"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="88" t="s">
-        <v>171</v>
-      </c>
+      <c r="B139" s="74"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="52"/>
       <c r="F139" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G139" s="63"/>
+        <v>177</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="64"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="52"/>
       <c r="F140" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G140" s="64"/>
+        <v>179</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="96"/>
-      <c r="D141" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E141" s="88" t="s">
-        <v>259</v>
-      </c>
+      <c r="B141" s="74"/>
+      <c r="C141" s="98"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="96"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="63"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="F142" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="96"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="63"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="99"/>
+      <c r="D143" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="F143" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>179</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G143" s="7"/>
       <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="72"/>
-      <c r="C144" s="96"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H144" s="35"/>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="96"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H145" s="35"/>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="96"/>
-      <c r="D146" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H146" s="35"/>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="97"/>
-      <c r="D147" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="35"/>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
@@ -4861,7 +4830,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
@@ -4870,7 +4839,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
@@ -4879,7 +4848,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
@@ -4888,7 +4857,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
@@ -4897,7 +4866,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
@@ -4906,7 +4875,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
@@ -4915,7 +4884,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
@@ -4924,7 +4893,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
@@ -4933,7 +4902,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -4942,7 +4911,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
@@ -4951,7 +4920,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
@@ -4960,7 +4929,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
@@ -5043,44 +5012,20 @@
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
@@ -5187,62 +5132,86 @@
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
@@ -5866,40 +5835,40 @@
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
@@ -5907,8 +5876,8 @@
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
@@ -11562,142 +11531,106 @@
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="3"/>
-      <c r="B930" s="3"/>
-      <c r="C930" s="3"/>
-      <c r="D930" s="3"/>
-      <c r="E930" s="3"/>
+    <row r="930" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
-    </row>
-    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="3"/>
-      <c r="B931" s="3"/>
-      <c r="C931" s="3"/>
-      <c r="D931" s="3"/>
-      <c r="E931" s="3"/>
-      <c r="F931" s="3"/>
-      <c r="G931" s="3"/>
-    </row>
-    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="3"/>
-      <c r="B932" s="3"/>
-      <c r="C932" s="3"/>
-      <c r="D932" s="3"/>
-      <c r="E932" s="3"/>
-      <c r="F932" s="3"/>
-      <c r="G932" s="3"/>
-    </row>
-    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="3"/>
-      <c r="B933" s="3"/>
-      <c r="C933" s="3"/>
-      <c r="D933" s="3"/>
-      <c r="E933" s="3"/>
-      <c r="F933" s="3"/>
-      <c r="G933" s="3"/>
-    </row>
-    <row r="934" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F934" s="3"/>
-      <c r="G934" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="90">
     <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B93:B147"/>
+    <mergeCell ref="B89:B143"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E141:E145"/>
-    <mergeCell ref="C137:C147"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="C133:C143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E123:E126"/>
     <mergeCell ref="D133:D136"/>
-    <mergeCell ref="C122:C132"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="C118:C128"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="D123:D126"/>
     <mergeCell ref="G133:G136"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="G98:G102"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="G52:G56"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B66:C92"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="B4:B65"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D74:D91"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B62:C88"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B4:B61"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D70:D87"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G47"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E47" r:id="rId1" display="com.workspace.client.contract.vo"/>
+    <hyperlink ref="E43" r:id="rId1" display="com.workspace.client.contract.vo"/>
     <hyperlink ref="E4" r:id="rId2" display="com.workspace.client.member.vo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="289">
   <si>
     <r>
       <rPr>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>BCrypt</t>
-  </si>
-  <si>
-    <t>Util</t>
   </si>
   <si>
     <t>header</t>
@@ -300,11 +297,11 @@
   </si>
   <si>
     <t>mainLayout</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>mainContent</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -381,7 +378,7 @@
       </rPr>
       <t>명세서</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.admin.login.controller</t>
@@ -397,7 +394,7 @@
   </si>
   <si>
     <t>view</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -435,39 +432,39 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.reservation.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.reservation.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/client/reservation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>src/main/resources/query/client</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>footer</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SHA256</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationVO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationDAO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -482,11 +479,11 @@
       </rPr>
       <t>ServiceImpl</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationService</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -501,11 +498,11 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationDetail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VIEW</t>
@@ -621,145 +618,145 @@
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.inquiry.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryVO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.inquiry.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryDAO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryDAOImpl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.inquiry.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryService</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryServiceImpl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>view</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/client/inquiry</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/inquiry/inquiryList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryWrite</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/inquiry/inquiryWrite</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryDetails</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>control</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.inquiry.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryController</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/inquiry</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Inquiry.xml</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>login
 (로그인)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>member
  (회원)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>product
  (상품)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>notice
  (공지사항)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chart
 (통계)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MODEL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>src/main/resources/query/client</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>product.xml</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.product.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.product.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/client/product</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>notice
  (공지사항)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -785,7 +782,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -800,83 +797,83 @@
       </rPr>
       <t>DAOImpl</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.login.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.login.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.login.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.notice.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>src/main/resources/query/client</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/client/notice</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.notice.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.notice.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.login.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/login/login</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/login/find</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/login</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/notice/noticeDetail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/notice</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/product/productDetail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/product</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/inquiry/inquiryDetails</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/admin/product/productList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>admin/login/adminLogin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.admin.inquiry.service</t>
@@ -928,27 +925,27 @@
   </si>
   <si>
     <t>MODEL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MAPPER</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>src/main/resources/query/admin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>updateReplyQuiry</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InquiryController</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/admin/inquiry</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -976,11 +973,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>admin-Inquiry.xml</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t> model</t>
@@ -1023,11 +1020,11 @@
   </si>
   <si>
     <t>/admin/member</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Admin-member.xml</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.admin.reservation.service</t>
@@ -1076,7 +1073,7 @@
   </si>
   <si>
     <t>/admin/Reservation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1104,35 +1101,35 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.file</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.page</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.util</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.common.graph</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChartMake</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,15 +1157,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.member.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.member.dao</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1183,27 +1180,27 @@
       </rPr>
       <t>Data</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/member/memberModify</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReserveList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/member/ReserveList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReserveCancel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/member/ReserveCancel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1218,7 +1215,7 @@
       </rPr>
       <t>member/review</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1257,47 +1254,47 @@
       </rPr>
       <t>/cancelList</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>control</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.member.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CancelList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Review</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MemberData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MemberModify</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/admin/reservation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/admin/notice</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/admin/chart</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/quiry</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1322,7 +1319,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1347,7 +1344,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1372,7 +1369,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1397,7 +1394,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1422,11 +1419,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/template/client</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1441,7 +1438,7 @@
       </rPr>
       <t>ontentLayout1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1456,11 +1453,11 @@
       </rPr>
       <t>ontentLayout2</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/template/admin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1485,7 +1482,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,63 +1507,63 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/intro</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/content1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/content2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/WEB-INF/views/client/member</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.member.service</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/login/join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.admin.product.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.admin.notice.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.reservation.vo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.reservation.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationController</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/reservation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1598,7 +1595,7 @@
       </rPr>
       <t>생성</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1613,46 +1610,94 @@
       </rPr>
       <t>reservationDetail</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ReservationAgreePage</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/reservationAgreePage</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/product/productList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ProductController</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>com.camflex.client.product.controller</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NoticeController</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/notice/noticeList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>notice.xml</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentLayout3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aside3(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1700,12 +1745,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2026,12 +2065,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2048,7 +2087,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,25 +2096,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,10 +2126,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,7 +2138,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2110,7 +2148,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2122,86 +2160,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,12 +2208,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2222,7 +2296,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,10 +2317,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,105 +2330,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2577,10 +2618,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M930"/>
+  <dimension ref="A1:M931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2592,30 +2633,30 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="33"/>
+    <col min="8" max="8" width="14.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2637,342 +2678,342 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>274</v>
+      <c r="H3" s="33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="26" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="35"/>
+      <c r="E9" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="35"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="27" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="27" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="35"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="35"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="91" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="84" t="s">
-        <v>149</v>
+      <c r="B18" s="84"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="66" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="84" t="s">
-        <v>148</v>
+      <c r="B20" s="84"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
+        <v>147</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="40" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="70" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="86"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="32" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="35"/>
+        <v>158</v>
+      </c>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="12" t="s">
         <v>17</v>
       </c>
@@ -2983,295 +3024,295 @@
         <v>28</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="35"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="100" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="103" t="s">
+      <c r="E27" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="104"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="103" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="103" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="104"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="103" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="104"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="103" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="35"/>
+      <c r="G31" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="103" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="35"/>
+      <c r="G32" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="35"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="35"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>141</v>
+      <c r="B35" s="84"/>
+      <c r="C35" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>140</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="35"/>
+        <v>80</v>
+      </c>
+      <c r="G35" s="50"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="50"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="35"/>
+        <v>81</v>
+      </c>
+      <c r="G36" s="50"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="48" t="s">
-        <v>142</v>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="50"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>143</v>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H39" s="35"/>
+        <v>279</v>
+      </c>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="35"/>
+        <v>162</v>
+      </c>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="86"/>
       <c r="D42" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="35"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="75" t="s">
+      <c r="B43" s="84"/>
+      <c r="C43" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="88" t="s">
-        <v>63</v>
+      <c r="B44" s="84"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="73" t="s">
+        <v>62</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="89"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="G45" s="109"/>
+      <c r="H45" s="34"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3280,17 +3321,17 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="89" t="s">
-        <v>64</v>
+      <c r="B46" s="84"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="35"/>
+        <v>70</v>
+      </c>
+      <c r="G46" s="109"/>
+      <c r="H46" s="34"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3299,33 +3340,33 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="88"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="G47" s="109"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>65</v>
+      <c r="B48" s="84"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H48" s="35"/>
+        <v>276</v>
+      </c>
+      <c r="H48" s="34"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -3334,17 +3375,17 @@
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="83"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="34"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -3353,57 +3394,57 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="77"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>273</v>
-      </c>
       <c r="G50" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>275</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="77"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="H51" s="35"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="62" t="s">
+      <c r="B52" s="84"/>
+      <c r="C52" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="F52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="35"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="34"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3412,17 +3453,17 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="51" t="s">
+      <c r="B53" s="84"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="35"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="34"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3431,15 +3472,15 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="51"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="35"/>
+        <v>116</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="34"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3448,17 +3489,17 @@
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="51" t="s">
+      <c r="B55" s="84"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="35"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="34"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -3467,15 +3508,15 @@
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="51"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="35"/>
+        <v>119</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="34"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -3484,21 +3525,21 @@
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="78" t="s">
+      <c r="B57" s="84"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="F57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="35"/>
+      <c r="H57" s="34"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -3507,54 +3548,54 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="51"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="35"/>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="35"/>
+        <v>163</v>
+      </c>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="F60" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" s="35"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="21" t="s">
         <v>17</v>
       </c>
@@ -3562,1042 +3603,1041 @@
         <v>18</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="35"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62" t="s">
+      <c r="C62" s="79"/>
+      <c r="D62" s="77" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="35"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="62"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="35"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="61"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="35"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="51" t="s">
-        <v>225</v>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="35"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="35"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="51" t="s">
-        <v>226</v>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="63" t="s">
+        <v>225</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="35"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="35"/>
+      <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="35"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70" s="35"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="35"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="30" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H72" s="35"/>
+      <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" s="35"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="52"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="35"/>
+      <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="52"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="35"/>
+      <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="35"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G76" s="36"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="53"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="90" t="s">
-        <v>259</v>
-      </c>
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="35"/>
+      <c r="G78" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="35"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="35"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="35"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="52"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="35"/>
-    </row>
-    <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="35"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="52"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="35"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="52"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="50"/>
       <c r="F85" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="35"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="53"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="50"/>
       <c r="F87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="34"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="35"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="23"/>
+      <c r="H88" s="34"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>75</v>
+      <c r="B89" s="82"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="H89" s="34"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="55"/>
+      <c r="B90" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="D90" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="E91" s="90" t="s">
-        <v>192</v>
+      <c r="B91" s="41"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="53"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="F92" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="35"/>
+        <v>192</v>
+      </c>
+      <c r="G92" s="48"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="90" t="s">
-        <v>195</v>
-      </c>
+      <c r="B93" s="41"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" s="52"/>
-      <c r="H93" s="35"/>
+        <v>193</v>
+      </c>
+      <c r="G93" s="50"/>
+      <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="53"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="48" t="s">
+        <v>194</v>
+      </c>
       <c r="F94" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G94" s="53"/>
-      <c r="H94" s="35"/>
+        <v>195</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="B95" s="41"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H95" s="35"/>
+        <v>196</v>
+      </c>
+      <c r="G95" s="49"/>
+      <c r="H95" s="34"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="57"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="21" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H96" s="35"/>
+        <v>199</v>
+      </c>
+      <c r="H96" s="34"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="55"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="21" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="35"/>
+        <v>202</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>269</v>
+      <c r="B98" s="41"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" s="90"/>
-      <c r="H98" s="35"/>
+        <v>204</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="48" t="s">
-        <v>80</v>
+      <c r="B99" s="41"/>
+      <c r="C99" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="G99" s="48"/>
+      <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="50"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="F100" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G100" s="52"/>
-      <c r="H100" s="35"/>
+        <v>80</v>
+      </c>
+      <c r="G100" s="50"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="B101" s="41"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="35"/>
+        <v>81</v>
+      </c>
+      <c r="G101" s="50"/>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="50"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="F102" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="G102" s="50"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>86</v>
-      </c>
+      <c r="B103" s="41"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H103" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="G103" s="49"/>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="49"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H104" s="35"/>
+        <v>164</v>
+      </c>
+      <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="49"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="35"/>
+        <v>88</v>
+      </c>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="50"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H106" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="54"/>
       <c r="F107" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H107" s="35"/>
+        <v>92</v>
+      </c>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="92"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="59"/>
       <c r="D108" s="9" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="90" t="s">
-        <v>206</v>
+      <c r="B109" s="41"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G109" s="90"/>
-      <c r="H109" s="35"/>
+        <v>97</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="53"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="48" t="s">
+        <v>205</v>
+      </c>
       <c r="F110" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G110" s="52"/>
-      <c r="H110" s="35"/>
+        <v>206</v>
+      </c>
+      <c r="G110" s="48"/>
+      <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="90" t="s">
-        <v>209</v>
-      </c>
+      <c r="B111" s="41"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="49"/>
       <c r="F111" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="35"/>
+        <v>207</v>
+      </c>
+      <c r="G111" s="50"/>
+      <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="53"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="48" t="s">
+        <v>208</v>
+      </c>
       <c r="F112" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G112" s="53"/>
-      <c r="H112" s="35"/>
+        <v>209</v>
+      </c>
+      <c r="G112" s="50"/>
+      <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="90" t="s">
-        <v>247</v>
-      </c>
+      <c r="B113" s="41"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="49"/>
       <c r="F113" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H113" s="35"/>
+        <v>210</v>
+      </c>
+      <c r="G113" s="49"/>
+      <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="52"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>246</v>
+      </c>
       <c r="F114" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H114" s="35"/>
+        <v>212</v>
+      </c>
+      <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="53"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="50"/>
       <c r="F115" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H115" s="35"/>
+        <v>214</v>
+      </c>
+      <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="B116" s="41"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="49"/>
       <c r="F116" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H116" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="60"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="21" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="35"/>
+      <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>270</v>
+      <c r="B118" s="41"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="90"/>
-      <c r="H118" s="35"/>
+        <v>219</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="48" t="s">
-        <v>58</v>
+      <c r="B119" s="41"/>
+      <c r="C119" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="52"/>
-      <c r="H119" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="G119" s="48"/>
+      <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="50"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="F120" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" s="52"/>
-      <c r="H120" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="G120" s="50"/>
+      <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="48" t="s">
-        <v>59</v>
-      </c>
+      <c r="B121" s="41"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="54"/>
       <c r="F121" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="52"/>
-      <c r="H121" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="G121" s="50"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="50"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="F122" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="G122" s="50"/>
+      <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="48" t="s">
-        <v>248</v>
-      </c>
+      <c r="B123" s="41"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="54"/>
       <c r="F123" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H123" s="35"/>
+        <v>31</v>
+      </c>
+      <c r="G123" s="49"/>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="49"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" s="53" t="s">
+        <v>247</v>
+      </c>
       <c r="F124" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H124" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="49"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="7" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H125" s="35"/>
+        <v>98</v>
+      </c>
+      <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="50"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H126" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B127" s="41"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="54"/>
       <c r="F127" s="7" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H127" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="92"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="9" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>249</v>
+      <c r="B129" s="41"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G129" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="H129" s="35"/>
+        <v>103</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="48"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>248</v>
+      </c>
       <c r="F130" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G130" s="48"/>
-      <c r="H130" s="35"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
+        <v>104</v>
+      </c>
+      <c r="G130" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="48"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" s="48"/>
-      <c r="H131" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="G131" s="53"/>
+      <c r="H131" s="34"/>
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
@@ -4606,193 +4646,201 @@
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="93"/>
-      <c r="D132" s="93"/>
-      <c r="E132" s="91"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="53"/>
       <c r="F132" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="G132" s="53"/>
+      <c r="H132" s="34"/>
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E133" s="90" t="s">
-        <v>167</v>
-      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="62"/>
       <c r="F133" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G133" s="90"/>
-      <c r="H133" s="35"/>
+        <v>108</v>
+      </c>
+      <c r="G133" s="62"/>
+      <c r="H133" s="34"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="53"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E134" s="48" t="s">
+        <v>166</v>
+      </c>
       <c r="F134" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G134" s="52"/>
-      <c r="H134" s="35"/>
+        <v>167</v>
+      </c>
+      <c r="G134" s="48"/>
+      <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="90" t="s">
-        <v>170</v>
-      </c>
+      <c r="B135" s="41"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="49"/>
       <c r="F135" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" s="52"/>
-      <c r="H135" s="35"/>
+        <v>168</v>
+      </c>
+      <c r="G135" s="50"/>
+      <c r="H135" s="34"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="53"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="48" t="s">
+        <v>169</v>
+      </c>
       <c r="F136" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G136" s="53"/>
-      <c r="H136" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="G136" s="50"/>
+      <c r="H136" s="34"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E137" s="90" t="s">
-        <v>250</v>
-      </c>
+      <c r="B137" s="41"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="49"/>
       <c r="F137" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H137" s="35"/>
+        <v>171</v>
+      </c>
+      <c r="G137" s="49"/>
+      <c r="H137" s="34"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="52"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E138" s="48" t="s">
+        <v>249</v>
+      </c>
       <c r="F138" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H138" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="H138" s="34"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="52"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="50"/>
       <c r="F139" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H139" s="35"/>
+        <v>175</v>
+      </c>
+      <c r="H139" s="34"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="98"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="52"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H140" s="35"/>
+        <v>177</v>
+      </c>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="98"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="53"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="50"/>
       <c r="F141" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H141" s="35"/>
+        <v>179</v>
+      </c>
+      <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="98"/>
-      <c r="D142" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="B142" s="41"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="49"/>
       <c r="F142" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H142" s="35"/>
+        <v>180</v>
+      </c>
+      <c r="H142" s="34"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="99"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="51"/>
       <c r="D143" s="21" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="35"/>
+        <v>186</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H143" s="34"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
@@ -5012,11 +5060,17 @@
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
@@ -5132,59 +5186,53 @@
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
@@ -5835,11 +5883,11 @@
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="3"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
     </row>
@@ -5849,8 +5897,8 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
@@ -11531,89 +11579,21 @@
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="3"/>
+      <c r="B930" s="3"/>
+      <c r="C930" s="3"/>
+      <c r="D930" s="3"/>
+      <c r="E930" s="3"/>
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
     </row>
+    <row r="931" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F931" s="3"/>
+      <c r="G931" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B89:B143"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="C133:C143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C118:C128"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="G98:G102"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B62:C88"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B4:B61"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D70:D87"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="E57:E59"/>
     <mergeCell ref="C4:C16"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
@@ -11627,8 +11607,85 @@
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="G35:G38"/>
     <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C98"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D69:D88"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B62:C89"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B4:B61"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E69:E78"/>
+    <mergeCell ref="E79:E88"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="C99:C109"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C119:C129"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B90:B144"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E142"/>
+    <mergeCell ref="C134:C144"/>
+    <mergeCell ref="D138:D142"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E43" r:id="rId1" display="com.workspace.client.contract.vo"/>
     <hyperlink ref="E4" r:id="rId2" display="com.workspace.client.member.vo"/>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\git\Project\프로젝트 산출물\10. 구조명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProject\프로젝트 산출물\10. 구조명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
   <si>
     <r>
       <rPr>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>BCrypt</t>
-  </si>
-  <si>
-    <t>Util</t>
   </si>
   <si>
     <t>header</t>
@@ -1647,12 +1644,20 @@
     <t>notice.xml</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>/member/joinForm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1847,6 +1852,18 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2035,7 +2052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2063,34 +2080,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,25 +2103,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2137,71 +2124,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,20 +2184,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,10 +2266,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2264,96 +2285,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2579,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:M930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2592,30 +2566,30 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="33"/>
+    <col min="8" max="8" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2637,641 +2611,643 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>274</v>
+      <c r="H3" s="24" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="26" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="81" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="35"/>
+        <v>264</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="35"/>
+        <v>244</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="35"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="35"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="27" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="35"/>
+      <c r="G14" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="35"/>
+      <c r="G15" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="35"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="84" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="35"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="35"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="35"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="35"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="35"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="35"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="104"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="35"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="104"/>
-      <c r="H29" s="35"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="104"/>
-      <c r="H30" s="35"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="85"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="35"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="85"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="35"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="35"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="35"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="35"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="35"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="63"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="35"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="35"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="63"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H39" s="35"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="35"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="35"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="35"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="35"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="84"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="84"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3280,17 +3256,15 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="84"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3299,33 +3273,29 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="35"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="84"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H48" s="35"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="84"/>
+      <c r="H48" s="25"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -3334,17 +3304,21 @@
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H49" s="35"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" s="25"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -3353,57 +3327,53 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>276</v>
-      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="35"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="35"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3412,17 +3382,21 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="35"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3431,15 +3405,17 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3448,17 +3424,15 @@
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="35"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="63"/>
+      <c r="H55" s="25"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -3467,15 +3441,17 @@
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="25"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -3484,21 +3460,15 @@
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="35"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="63"/>
+      <c r="H57" s="25"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -3507,391 +3477,397 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="35"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="35"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" s="35"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="35"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="35"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="69"/>
+      <c r="B63" s="69" t="s">
+        <v>37</v>
+      </c>
       <c r="C63" s="70"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="7" t="s">
-        <v>228</v>
+      <c r="D63" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="35"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="61"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="35"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="51" t="s">
-        <v>225</v>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="35"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="63" t="s">
+        <v>224</v>
+      </c>
       <c r="F66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="35"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="51" t="s">
-        <v>226</v>
-      </c>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="35"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="6" t="s">
-        <v>68</v>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="35"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="35"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="62" t="s">
+      <c r="B70" s="71"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="90" t="s">
-        <v>256</v>
+      <c r="E70" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="52"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="35"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="30" t="s">
-        <v>257</v>
+      <c r="B72" s="71"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H72" s="35"/>
+        <v>262</v>
+      </c>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" s="35"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="52"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="35"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="52"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="35"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="52"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="50"/>
       <c r="F76" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="53"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="90" t="s">
-        <v>259</v>
+      <c r="B78" s="71"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="48" t="s">
+        <v>258</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="35"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="35"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="52"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="35"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="52"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="35"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="52"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="50"/>
       <c r="F83" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G83" s="8"/>
-      <c r="H83" s="35"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="52"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="35"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="52"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="50"/>
       <c r="F85" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="35"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="52"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="50"/>
       <c r="F86" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="35"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -3900,15 +3876,15 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="53"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -3917,21 +3893,21 @@
     </row>
     <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="21" t="s">
+      <c r="B88" s="73"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="35"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -3940,647 +3916,647 @@
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="F89" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="55"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="35"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" s="58" t="s">
+      <c r="B91" s="41"/>
+      <c r="C91" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E91" s="90" t="s">
+      <c r="F91" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="35"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="53"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="35"/>
+        <v>193</v>
+      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="90" t="s">
+      <c r="B93" s="41"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" s="52"/>
-      <c r="H93" s="35"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="53"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G94" s="53"/>
-      <c r="H94" s="35"/>
+        <v>196</v>
+      </c>
+      <c r="G94" s="49"/>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="21" t="s">
+      <c r="B95" s="41"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H95" s="35"/>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="21" t="s">
+      <c r="B96" s="41"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H96" s="35"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="21" t="s">
+      <c r="B97" s="41"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G97" s="7"/>
-      <c r="H97" s="35"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="66" t="s">
+      <c r="B98" s="41"/>
+      <c r="C98" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" s="90"/>
-      <c r="H98" s="35"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="48" t="s">
+      <c r="B99" s="41"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="35"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="50"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="54"/>
       <c r="F100" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G100" s="52"/>
-      <c r="H100" s="35"/>
+        <v>81</v>
+      </c>
+      <c r="G100" s="50"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="48" t="s">
+      <c r="B101" s="41"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="35"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="50"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="54"/>
       <c r="F102" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="G102" s="49"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="48" t="s">
+      <c r="B103" s="41"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="G103" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H103" s="35"/>
+        <v>164</v>
+      </c>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="49"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H104" s="35"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="49"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="35"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="50"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H106" s="35"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="92"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="59"/>
       <c r="D107" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H107" s="35"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="92"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="59"/>
       <c r="D108" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G108" s="7"/>
-      <c r="H108" s="35"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="58" t="s">
+      <c r="B109" s="41"/>
+      <c r="C109" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G109" s="90"/>
-      <c r="H109" s="35"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="53"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G110" s="52"/>
-      <c r="H110" s="35"/>
+        <v>207</v>
+      </c>
+      <c r="G110" s="50"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="90" t="s">
+      <c r="B111" s="41"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="35"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="53"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="49"/>
       <c r="F112" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G112" s="53"/>
-      <c r="H112" s="35"/>
+        <v>210</v>
+      </c>
+      <c r="G112" s="49"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="58" t="s">
+      <c r="B113" s="41"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="90" t="s">
-        <v>247</v>
+      <c r="E113" s="48" t="s">
+        <v>246</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H113" s="35"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="52"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="50"/>
       <c r="F114" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H114" s="35"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="53"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="49"/>
       <c r="F115" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H115" s="35"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="21" t="s">
-        <v>201</v>
+      <c r="B116" s="41"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="E116" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="G116" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H116" s="35"/>
+        <v>220</v>
+      </c>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="21" t="s">
+      <c r="B117" s="41"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G117" s="7"/>
-      <c r="H117" s="35"/>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>270</v>
+      <c r="B118" s="41"/>
+      <c r="C118" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G118" s="90"/>
-      <c r="H118" s="35"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="48" t="s">
-        <v>58</v>
+      <c r="B119" s="41"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G119" s="52"/>
-      <c r="H119" s="35"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="50"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="54"/>
       <c r="F120" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G120" s="52"/>
-      <c r="H120" s="35"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="48" t="s">
-        <v>59</v>
+      <c r="B121" s="41"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="52"/>
-      <c r="H121" s="35"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="50"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="54"/>
       <c r="F122" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="35"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="48" t="s">
-        <v>248</v>
+      <c r="B123" s="41"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H123" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="49"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="58"/>
       <c r="F124" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H124" s="35"/>
+        <v>98</v>
+      </c>
+      <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="49"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H125" s="35"/>
+      <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="50"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="54"/>
       <c r="F126" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H126" s="35"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="92"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H127" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="92"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G128" s="7"/>
-      <c r="H128" s="35"/>
+      <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>249</v>
+      <c r="B129" s="41"/>
+      <c r="C129" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="53" t="s">
+        <v>248</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G129" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="H129" s="35"/>
+      <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="48"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="53"/>
       <c r="F130" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G130" s="48"/>
-      <c r="H130" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="G130" s="53"/>
+      <c r="H130" s="25"/>
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
@@ -4589,15 +4565,15 @@
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="48"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" s="48"/>
-      <c r="H131" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="G131" s="53"/>
+      <c r="H131" s="25"/>
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
@@ -4606,15 +4582,15 @@
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="93"/>
-      <c r="D132" s="93"/>
-      <c r="E132" s="91"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="61"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="62"/>
       <c r="F132" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="35"/>
+        <v>108</v>
+      </c>
+      <c r="G132" s="62"/>
+      <c r="H132" s="25"/>
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
@@ -4623,176 +4599,177 @@
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E133" s="90" t="s">
+      <c r="B133" s="41"/>
+      <c r="C133" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G133" s="90"/>
-      <c r="H133" s="35"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="53"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="49"/>
       <c r="F134" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G134" s="52"/>
-      <c r="H134" s="35"/>
+        <v>168</v>
+      </c>
+      <c r="G134" s="50"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="90" t="s">
+      <c r="B135" s="41"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" s="52"/>
-      <c r="H135" s="35"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="53"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="49"/>
       <c r="F136" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G136" s="53"/>
-      <c r="H136" s="35"/>
+        <v>171</v>
+      </c>
+      <c r="G136" s="49"/>
+      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E137" s="90" t="s">
-        <v>250</v>
+      <c r="B137" s="41"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E137" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H137" s="35"/>
+      <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="52"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="50"/>
       <c r="F138" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H138" s="35"/>
+      <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="52"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="50"/>
       <c r="F139" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H139" s="35"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="98"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="52"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H140" s="35"/>
+      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="98"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="53"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="49"/>
       <c r="F141" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H141" s="35"/>
+        <v>180</v>
+      </c>
+      <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="98"/>
-      <c r="D142" s="21" t="s">
-        <v>77</v>
+      <c r="B142" s="41"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H142" s="35"/>
+      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="99"/>
-      <c r="D143" s="21" t="s">
+      <c r="B143" s="41"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E143" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="F143" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G143" s="7"/>
-      <c r="H143" s="35"/>
+      <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="87"/>
+      <c r="F144" s="86"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
@@ -11537,6 +11514,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B4:B62"/>
+    <mergeCell ref="B63:C88"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D70:D87"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="G98:G102"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="C118:C128"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="D133:D136"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B89:B143"/>
     <mergeCell ref="D4:D8"/>
@@ -11553,84 +11604,10 @@
     <mergeCell ref="E137:E141"/>
     <mergeCell ref="C133:C143"/>
     <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C118:C128"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="G98:G102"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B62:C88"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B4:B61"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D70:D87"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E43" r:id="rId1" display="com.workspace.client.contract.vo"/>
+    <hyperlink ref="E44" r:id="rId1" display="com.workspace.client.contract.vo"/>
     <hyperlink ref="E4" r:id="rId2" display="com.workspace.client.member.vo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>login</t>
-  </si>
-  <si>
-    <t>find</t>
   </si>
   <si>
     <t>LoginController</t>
@@ -840,10 +837,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/login/find</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/login</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1073,34 +1066,6 @@
   </si>
   <si>
     <t>/admin/Reservation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>reservation
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예약</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1530,14 +1495,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/join</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>com.camflex.admin.product.vo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1652,12 +1609,56 @@
     <t>join</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>findId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/findId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/findPw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reservation
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1733,13 +1734,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2044,15 +2038,15 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2065,7 +2059,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,19 +2071,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,7 +2092,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2106,7 +2099,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,16 +2129,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2160,10 +2153,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,18 +2186,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,30 +2193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2235,17 +2210,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,68 +2266,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2553,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:M930"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2566,30 +2581,30 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="23"/>
+    <col min="8" max="8" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2611,643 +2626,643 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>273</v>
+      <c r="H3" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="27" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="27" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="81" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" s="25"/>
+      <c r="E9" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="25"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="25"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="G15" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="36" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="81" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="62" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="33" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="81" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="25"/>
+      <c r="G23" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="25"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H25" s="25"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="25"/>
+      <c r="E26" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="32" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>28</v>
+      <c r="F27" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="95" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="25"/>
+      <c r="E28" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="25"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="85"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="25"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="25"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="25"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" s="25"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="56"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="25"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="56"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="H40" s="25"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" s="25"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H42" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="77" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="64" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="25"/>
+        <v>265</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="77"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="25"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="77"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3256,15 +3271,15 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="25"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="77"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3273,29 +3288,29 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="25"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="77"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="25"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="77"/>
+      <c r="H48" s="24"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -3304,21 +3319,21 @@
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>64</v>
+      <c r="B49" s="46"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H49" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" s="24"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -3327,53 +3342,53 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="H50" s="25"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="30" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>275</v>
+      <c r="E51" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="30" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="25"/>
+      <c r="E52" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3382,21 +3397,21 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="83" t="s">
-        <v>145</v>
+      <c r="B53" s="46"/>
+      <c r="C53" s="96" t="s">
+        <v>144</v>
       </c>
       <c r="D53" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="F53" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3405,17 +3420,17 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="83"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="68"/>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3424,15 +3439,15 @@
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="83"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="68"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="25"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="56"/>
+      <c r="H55" s="24"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -3441,17 +3456,17 @@
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="83"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="68"/>
-      <c r="E56" s="63" t="s">
+      <c r="E56" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="25"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="24"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -3460,15 +3475,15 @@
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="83"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="68"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="25"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="24"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -3477,397 +3492,397 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="80" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="F58" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="G58" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="25"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="28" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="25"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="28" t="s">
-        <v>126</v>
+      <c r="B60" s="46"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H60" s="25"/>
+        <v>161</v>
+      </c>
+      <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="31" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="F61" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="G61" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="25"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="29" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="25"/>
+      <c r="F62" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="24"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="45"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="63" t="s">
-        <v>224</v>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="56" t="s">
+        <v>221</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="75"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="91" t="s">
-        <v>225</v>
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="69" t="s">
+        <v>222</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="92"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="72"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="48" t="s">
-        <v>255</v>
+      <c r="E70" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H70" s="25"/>
+        <v>258</v>
+      </c>
+      <c r="H70" s="24"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="50"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="72"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="22" t="s">
-        <v>256</v>
+      <c r="E72" s="51"/>
+      <c r="F72" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" s="25"/>
+        <v>259</v>
+      </c>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="72"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="68"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H73" s="25"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="72"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="68"/>
-      <c r="E74" s="50"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="68"/>
-      <c r="E75" s="50"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="68"/>
-      <c r="E76" s="50"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="72"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="68"/>
-      <c r="E77" s="49"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="72"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="68"/>
-      <c r="E78" s="48" t="s">
-        <v>258</v>
+      <c r="E78" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="72"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="68"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="25"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="72"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="68"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="25"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="24"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="72"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="68"/>
-      <c r="E81" s="50"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="25"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="72"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="68"/>
-      <c r="E82" s="50"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="25"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="68"/>
-      <c r="E83" s="50"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G83" s="8"/>
-      <c r="H83" s="25"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="74"/>
       <c r="D84" s="68"/>
-      <c r="E84" s="50"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="25"/>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="72"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="74"/>
       <c r="D85" s="68"/>
-      <c r="E85" s="50"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="74"/>
       <c r="D86" s="68"/>
-      <c r="E86" s="50"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -3876,15 +3891,15 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="72"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="74"/>
       <c r="D87" s="68"/>
-      <c r="E87" s="49"/>
+      <c r="E87" s="50"/>
       <c r="F87" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G87" s="18"/>
-      <c r="H87" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -3893,21 +3908,21 @@
     </row>
     <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="74"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H88" s="25"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -3916,647 +3931,647 @@
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="F89" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H89" s="25"/>
+      <c r="G89" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="57"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" s="25"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="47" t="s">
+      <c r="B91" s="46"/>
+      <c r="C91" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="25"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="50"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="56"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G93" s="50"/>
-      <c r="H93" s="25"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="56"/>
+      <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="49"/>
-      <c r="H94" s="25"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="56"/>
+      <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="15" t="s">
+      <c r="B95" s="46"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H95" s="25"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="15" t="s">
+      <c r="B96" s="46"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="G96" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H96" s="25"/>
+      <c r="H96" s="24"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="15" t="s">
+      <c r="B97" s="46"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="25"/>
+      <c r="E97" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97" s="39"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D98" s="55" t="s">
+      <c r="B98" s="46"/>
+      <c r="C98" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" s="48"/>
-      <c r="H98" s="25"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="53" t="s">
+      <c r="B99" s="46"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" s="50"/>
-      <c r="H99" s="25"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G100" s="50"/>
-      <c r="H100" s="25"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G100" s="56"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="53" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" s="50"/>
-      <c r="H101" s="25"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" s="49"/>
-      <c r="H102" s="25"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" s="56"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" s="53" t="s">
+      <c r="B103" s="46"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H103" s="25"/>
+      <c r="G103" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="7" t="s">
+      <c r="B104" s="46"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H104" s="25"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="7" t="s">
+      <c r="B105" s="46"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H105" s="25"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="7" t="s">
+      <c r="B106" s="46"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H106" s="25"/>
+      <c r="H106" s="24"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="59"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H107" s="25"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="59"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="25"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="47" t="s">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G109" s="48"/>
-      <c r="H109" s="25"/>
+      <c r="E109" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G109" s="56"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G110" s="50"/>
-      <c r="H110" s="25"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" s="56"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G111" s="50"/>
-      <c r="H111" s="25"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" s="56"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G112" s="49"/>
-      <c r="H112" s="25"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" s="56"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="47" t="s">
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H113" s="25"/>
+      <c r="E113" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="G113" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H114" s="25"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H114" s="24"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H115" s="25"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G115" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="H115" s="24"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G116" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H116" s="25"/>
+      <c r="H116" s="24"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="41"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="46"/>
-      <c r="D117" s="15" t="s">
+      <c r="D117" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="25"/>
+      <c r="E117" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G117" s="39"/>
+      <c r="H117" s="24"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>77</v>
+      <c r="B118" s="46"/>
+      <c r="C118" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="48"/>
-      <c r="H118" s="25"/>
+        <v>264</v>
+      </c>
+      <c r="F118" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="56"/>
+      <c r="H118" s="24"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="50"/>
-      <c r="H119" s="25"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="56"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" s="50"/>
-      <c r="H120" s="25"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="56"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="50"/>
-      <c r="H121" s="25"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="56"/>
+      <c r="H121" s="24"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" s="49"/>
-      <c r="H122" s="25"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="56"/>
+      <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E123" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H123" s="25"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" s="24"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="58"/>
-      <c r="F124" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H124" s="25"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" s="24"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="58"/>
-      <c r="F125" s="7" t="s">
+      <c r="B125" s="46"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H125" s="25"/>
+      <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="7" t="s">
+      <c r="B126" s="46"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G126" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H126" s="25"/>
+      <c r="H126" s="24"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="59"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H127" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" s="24"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="59"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="39"/>
+      <c r="H128" s="24"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E129" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="F129" s="7" t="s">
+      <c r="B129" s="46"/>
+      <c r="C129" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="F129" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G129" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G129" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="H129" s="25"/>
+      <c r="H129" s="24"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G130" s="53"/>
-      <c r="H130" s="25"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G130" s="55"/>
+      <c r="H130" s="24"/>
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
@@ -4565,15 +4580,15 @@
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G131" s="53"/>
-      <c r="H131" s="25"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G131" s="55"/>
+      <c r="H131" s="24"/>
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
@@ -4582,15 +4597,15 @@
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="41"/>
-      <c r="C132" s="61"/>
-      <c r="D132" s="61"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G132" s="62"/>
-      <c r="H132" s="25"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" s="55"/>
+      <c r="H132" s="24"/>
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
@@ -4599,177 +4614,177 @@
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="41"/>
-      <c r="C133" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D133" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E133" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G133" s="48"/>
-      <c r="H133" s="25"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G133" s="56"/>
+      <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G134" s="50"/>
-      <c r="H134" s="25"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G134" s="56"/>
+      <c r="H134" s="24"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="41"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G135" s="50"/>
-      <c r="H135" s="25"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G135" s="56"/>
+      <c r="H135" s="24"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="41"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G136" s="49"/>
-      <c r="H136" s="25"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" s="56"/>
+      <c r="H136" s="24"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E137" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H137" s="25"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E137" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H137" s="24"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="41"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H138" s="25"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G138" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H138" s="24"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H139" s="25"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="41"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H140" s="25"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G140" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H140" s="24"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="41"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H141" s="25"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H141" s="24"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="41"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H142" s="25"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F142" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G142" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="41"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="25"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G143" s="39"/>
+      <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="88"/>
-      <c r="E144" s="87"/>
-      <c r="F144" s="86"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="25"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="99"/>
+      <c r="D144" s="100"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="102"/>
+      <c r="G144" s="103"/>
+      <c r="H144" s="104"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
@@ -11514,8 +11529,12 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="B63:C88"/>
     <mergeCell ref="B4:B62"/>
-    <mergeCell ref="B63:C88"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G44:G48"/>
     <mergeCell ref="E40:E41"/>
@@ -11529,6 +11548,7 @@
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="C4:C17"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="C91:C97"/>
     <mergeCell ref="D91:D94"/>
@@ -11540,17 +11560,12 @@
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="D63:D69"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C36:C43"/>
     <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C44:C52"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D18:D22"/>
-    <mergeCell ref="C18:C27"/>
     <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C28:C35"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="G53:G57"/>
@@ -11574,6 +11589,8 @@
     <mergeCell ref="G118:G122"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="C133:C143"/>
     <mergeCell ref="C98:C108"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="E99:E100"/>
@@ -11582,11 +11599,11 @@
     <mergeCell ref="C118:C128"/>
     <mergeCell ref="D118:D122"/>
     <mergeCell ref="D123:D126"/>
-    <mergeCell ref="E133:E134"/>
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="D103:D106"/>
     <mergeCell ref="E103:E106"/>
     <mergeCell ref="E123:E126"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="D133:D136"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B89:B143"/>
@@ -11602,8 +11619,6 @@
     <mergeCell ref="E113:E115"/>
     <mergeCell ref="E135:E136"/>
     <mergeCell ref="E137:E141"/>
-    <mergeCell ref="C133:C143"/>
-    <mergeCell ref="D137:D141"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProject\프로젝트 산출물\10. 구조명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\git\Project\프로젝트 산출물\10. 구조명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
   <si>
     <r>
       <rPr>
@@ -449,10 +449,6 @@
   </si>
   <si>
     <t>footer</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHA256</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2046,7 +2042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2162,91 +2158,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2266,22 +2227,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,36 +2257,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2332,17 +2282,57 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2566,10 +2556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M930"/>
+  <dimension ref="A1:M929"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2586,25 +2576,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2627,192 +2617,192 @@
         <v>5</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48" t="s">
-        <v>228</v>
+      <c r="B5" s="66"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="67" t="s">
+        <v>227</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48" t="s">
-        <v>262</v>
+      <c r="B7" s="66"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="67" t="s">
+        <v>261</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="62" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>261</v>
+      <c r="E9" s="67" t="s">
+        <v>260</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>15</v>
@@ -2824,8 +2814,8 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="35" t="s">
         <v>17</v>
       </c>
@@ -2840,142 +2830,142 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="62" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="76" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="59"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59" t="s">
-        <v>147</v>
+      <c r="B19" s="66"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="93" t="s">
+        <v>146</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59" t="s">
-        <v>146</v>
+      <c r="B21" s="66"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="93" t="s">
+        <v>145</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="G21" s="89"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="94" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="81"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>282</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>283</v>
       </c>
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="82"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="31" t="s">
         <v>17</v>
       </c>
@@ -2990,278 +2980,278 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="86" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>153</v>
+      <c r="E28" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="61" t="s">
-        <v>152</v>
+      <c r="B30" s="66"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>151</v>
+      <c r="B32" s="66"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>150</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="36" t="s">
         <v>33</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>139</v>
+      <c r="B36" s="66"/>
+      <c r="C36" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="G36" s="72"/>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="56"/>
+        <v>79</v>
+      </c>
+      <c r="G37" s="72"/>
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55" t="s">
-        <v>140</v>
+      <c r="B38" s="66"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="69" t="s">
+        <v>139</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="56"/>
+        <v>81</v>
+      </c>
+      <c r="G38" s="72"/>
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="56"/>
+        <v>82</v>
+      </c>
+      <c r="G39" s="72"/>
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>141</v>
+      <c r="B40" s="66"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>140</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="93" t="s">
+      <c r="B44" s="66"/>
+      <c r="C44" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="78" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="77"/>
+        <v>66</v>
+      </c>
+      <c r="G44" s="68"/>
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="58" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="92" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="77"/>
+        <v>144</v>
+      </c>
+      <c r="G45" s="68"/>
       <c r="H45" s="24"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3271,14 +3261,14 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="57"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="77"/>
+        <v>67</v>
+      </c>
+      <c r="G46" s="68"/>
       <c r="H46" s="24"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3288,28 +3278,28 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="57" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="91" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="77"/>
+        <v>68</v>
+      </c>
+      <c r="G47" s="68"/>
       <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="58"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="77"/>
+        <v>69</v>
+      </c>
+      <c r="G48" s="68"/>
       <c r="H48" s="24"/>
       <c r="I48"/>
       <c r="J48"/>
@@ -3319,19 +3309,19 @@
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="64" t="s">
+      <c r="B49" s="66"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="91" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49"/>
@@ -3342,42 +3332,42 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="58"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>272</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>273</v>
       </c>
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="94"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="F51" s="34" t="s">
-        <v>267</v>
-      </c>
       <c r="G51" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="95"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="29" t="s">
         <v>17</v>
       </c>
@@ -3385,7 +3375,7 @@
         <v>64</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="24"/>
@@ -3397,20 +3387,20 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="68" t="s">
+      <c r="B53" s="66"/>
+      <c r="C53" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="F53" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="56"/>
+      <c r="G53" s="72"/>
       <c r="H53" s="24"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3420,16 +3410,16 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="56" t="s">
+      <c r="B54" s="66"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="56"/>
+      <c r="G54" s="72"/>
       <c r="H54" s="24"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -3439,14 +3429,14 @@
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="56"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="56"/>
+        <v>114</v>
+      </c>
+      <c r="G55" s="72"/>
       <c r="H55" s="24"/>
       <c r="I55"/>
       <c r="J55"/>
@@ -3456,16 +3446,16 @@
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="56" t="s">
+      <c r="B56" s="66"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="56"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="24"/>
       <c r="I56"/>
       <c r="J56"/>
@@ -3475,14 +3465,14 @@
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="56"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="72"/>
       <c r="F57" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="G57" s="72"/>
       <c r="H57" s="24"/>
       <c r="I57"/>
       <c r="J57"/>
@@ -3492,72 +3482,72 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="65" t="s">
+      <c r="B58" s="66"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="F58" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="G58" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="56"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="56"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="83"/>
       <c r="D61" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="F61" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="G61" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>129</v>
       </c>
       <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="28" t="s">
         <v>17</v>
       </c>
@@ -3565,22 +3555,22 @@
         <v>18</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="41" t="s">
+      <c r="C63" s="61"/>
+      <c r="D63" s="85" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>37</v>
@@ -3590,25 +3580,25 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="42"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="86"/>
       <c r="E64" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="24"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="42"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="86"/>
       <c r="E65" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>38</v>
@@ -3618,11 +3608,11 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="56" t="s">
-        <v>221</v>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="72" t="s">
+        <v>220</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>39</v>
@@ -3632,10 +3622,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="67"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="7" t="s">
         <v>40</v>
       </c>
@@ -3644,11 +3634,11 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="69" t="s">
-        <v>222</v>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>41</v>
@@ -3658,230 +3648,235 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="7"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>258</v>
-      </c>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="7"/>
       <c r="H70" s="24"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="7"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="H71" s="24"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="51"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="98"/>
       <c r="F72" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="21" t="s">
         <v>259</v>
       </c>
       <c r="H72" s="24"/>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>260</v>
-      </c>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="7"/>
       <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="51"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="98"/>
       <c r="F74" s="7" t="s">
         <v>250</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="24"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G75" s="7"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="21"/>
       <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="51"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="99"/>
       <c r="F76" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G76" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="G76" s="17"/>
       <c r="H76" s="24"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="50"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="97" t="s">
+        <v>254</v>
+      </c>
       <c r="F77" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="G77" s="21"/>
       <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>52</v>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="51"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="21" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="24"/>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" s="21"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="98"/>
+      <c r="F80" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G80" s="7"/>
       <c r="H80" s="24"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="51"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="98"/>
       <c r="F81" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="24"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" s="7"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" s="8"/>
       <c r="H82" s="24"/>
     </row>
     <row r="83" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="51"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="98"/>
       <c r="F83" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="51"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="98"/>
       <c r="F84" s="8" t="s">
         <v>247</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="24"/>
     </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G85" s="8"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="7"/>
       <c r="H85" s="24"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="51"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="99"/>
       <c r="F86" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="G86" s="17"/>
       <c r="H86" s="24"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -3889,16 +3884,22 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="17"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="H87" s="24"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -3906,671 +3907,665 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>44</v>
+      <c r="B88" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="H88" s="24"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>131</v>
-      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>55</v>
+      <c r="B90" s="66"/>
+      <c r="C90" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>188</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>48</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G90" s="72"/>
       <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="E91" s="56" t="s">
-        <v>189</v>
-      </c>
+      <c r="B91" s="66"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="72"/>
       <c r="F91" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="72"/>
       <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="56"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="72" t="s">
+        <v>191</v>
+      </c>
       <c r="F92" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="56"/>
+        <v>192</v>
+      </c>
+      <c r="G92" s="72"/>
       <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="56" t="s">
-        <v>192</v>
-      </c>
+      <c r="B93" s="66"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="72"/>
       <c r="F93" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="G93" s="56"/>
+      <c r="G93" s="72"/>
       <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="56"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="F94" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="G94" s="56"/>
+        <v>195</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="52"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="40" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="52"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="40" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G96" s="39" t="s">
         <v>201</v>
       </c>
+      <c r="G96" s="39"/>
       <c r="H96" s="24"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>49</v>
+      <c r="B97" s="66"/>
+      <c r="C97" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G97" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="G97" s="72"/>
       <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D98" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>263</v>
+      <c r="B98" s="66"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="69" t="s">
+        <v>77</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G98" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="G98" s="72"/>
       <c r="H98" s="24"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="55" t="s">
-        <v>78</v>
-      </c>
+      <c r="B99" s="66"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="69"/>
       <c r="F99" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="56"/>
+      <c r="G99" s="72"/>
       <c r="H99" s="24"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="69" t="s">
+        <v>80</v>
+      </c>
       <c r="F100" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G100" s="56"/>
+        <v>81</v>
+      </c>
+      <c r="G100" s="72"/>
       <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55" t="s">
-        <v>81</v>
-      </c>
+      <c r="B101" s="66"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="69"/>
       <c r="F101" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G101" s="56"/>
+      <c r="G101" s="72"/>
       <c r="H101" s="24"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="55"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="69" t="s">
+        <v>83</v>
+      </c>
       <c r="F102" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="56"/>
+        <v>84</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>161</v>
+      </c>
       <c r="H102" s="24"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E103" s="55" t="s">
-        <v>84</v>
-      </c>
+      <c r="B103" s="66"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="69"/>
       <c r="F103" s="39" t="s">
         <v>85</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="H103" s="24"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="55"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="69"/>
       <c r="F104" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H104" s="24"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="55"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="69"/>
       <c r="F105" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H105" s="24"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="55"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="F106" s="39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H106" s="24"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="52"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G107" s="39" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G107" s="39"/>
       <c r="H107" s="24"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>49</v>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D108" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="72" t="s">
+        <v>202</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G108" s="39"/>
+        <v>203</v>
+      </c>
+      <c r="G108" s="72"/>
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D109" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>203</v>
-      </c>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="72"/>
       <c r="F109" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G109" s="56"/>
+      <c r="G109" s="72"/>
       <c r="H109" s="24"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="56"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="72" t="s">
+        <v>205</v>
+      </c>
       <c r="F110" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G110" s="56"/>
+        <v>206</v>
+      </c>
+      <c r="G110" s="72"/>
       <c r="H110" s="24"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="72"/>
       <c r="F111" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G111" s="56"/>
+      <c r="G111" s="72"/>
       <c r="H111" s="24"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="56"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="72" t="s">
+        <v>242</v>
+      </c>
       <c r="F112" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="G112" s="56"/>
+      <c r="G112" s="39" t="s">
+        <v>209</v>
+      </c>
       <c r="H112" s="24"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="56" t="s">
-        <v>243</v>
-      </c>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="72"/>
       <c r="F113" s="39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H113" s="24"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="56"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="72"/>
       <c r="F114" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H114" s="24"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="56"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E115" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="F115" s="39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H115" s="24"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="66"/>
       <c r="D116" s="40" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="F116" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G116" s="39" t="s">
-        <v>218</v>
-      </c>
+      <c r="G116" s="39"/>
       <c r="H116" s="24"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="39" t="s">
-        <v>49</v>
+      <c r="B117" s="66"/>
+      <c r="C117" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="F117" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G117" s="39"/>
+        <v>28</v>
+      </c>
+      <c r="G117" s="72"/>
       <c r="H117" s="24"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="D118" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>264</v>
+      <c r="B118" s="66"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="87"/>
+      <c r="E118" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="56"/>
+        <v>31</v>
+      </c>
+      <c r="G118" s="72"/>
       <c r="H118" s="24"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="55" t="s">
-        <v>56</v>
-      </c>
+      <c r="B119" s="66"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="87"/>
+      <c r="E119" s="69"/>
       <c r="F119" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="56"/>
+        <v>32</v>
+      </c>
+      <c r="G119" s="72"/>
       <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="55"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="87"/>
+      <c r="E120" s="69" t="s">
+        <v>57</v>
+      </c>
       <c r="F120" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="G120" s="72"/>
       <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="55" t="s">
-        <v>57</v>
-      </c>
+      <c r="B121" s="66"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="69"/>
       <c r="F121" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="G121" s="72"/>
       <c r="H121" s="24"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="55"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="69" t="s">
+        <v>243</v>
+      </c>
       <c r="F122" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" s="56"/>
+        <v>34</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E123" s="55" t="s">
-        <v>244</v>
-      </c>
+      <c r="B123" s="66"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="69"/>
       <c r="F123" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="H123" s="24"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="55"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="79"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="69"/>
       <c r="F124" s="39" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H124" s="24"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="55"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="87"/>
+      <c r="E125" s="69"/>
       <c r="F125" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="55"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="F126" s="39" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H126" s="24"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="52"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="79"/>
       <c r="D127" s="9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E127" s="39" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F127" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G127" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G127" s="39"/>
       <c r="H127" s="24"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E128" s="39" t="s">
-        <v>49</v>
+      <c r="B128" s="66"/>
+      <c r="C128" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="F128" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G128" s="39"/>
+      <c r="G128" s="69" t="s">
+        <v>103</v>
+      </c>
       <c r="H128" s="24"/>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E129" s="55" t="s">
-        <v>245</v>
-      </c>
+      <c r="B129" s="66"/>
+      <c r="C129" s="79"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="69"/>
       <c r="F129" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G129" s="55" t="s">
         <v>104</v>
       </c>
+      <c r="G129" s="69"/>
       <c r="H129" s="24"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="55"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="69"/>
       <c r="F130" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G130" s="55"/>
+      <c r="G130" s="69"/>
       <c r="H130" s="24"/>
       <c r="I130"/>
       <c r="J130"/>
@@ -4580,14 +4575,14 @@
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="55"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="87"/>
+      <c r="E131" s="69"/>
       <c r="F131" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G131" s="55"/>
+      <c r="G131" s="69"/>
       <c r="H131" s="24"/>
       <c r="I131"/>
       <c r="J131"/>
@@ -4595,133 +4590,130 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="55"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E132" s="72" t="s">
+        <v>163</v>
+      </c>
       <c r="F132" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G132" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="G132" s="72"/>
       <c r="H132" s="24"/>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E133" s="56" t="s">
-        <v>164</v>
-      </c>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="72"/>
       <c r="F133" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G133" s="56"/>
+      <c r="G133" s="72"/>
       <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="56"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="72" t="s">
+        <v>166</v>
+      </c>
       <c r="F134" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G134" s="56"/>
+        <v>167</v>
+      </c>
+      <c r="G134" s="72"/>
       <c r="H134" s="24"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="56" t="s">
-        <v>167</v>
-      </c>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="72"/>
       <c r="F135" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G135" s="56"/>
+      <c r="G135" s="72"/>
       <c r="H135" s="24"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="56"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" s="72" t="s">
+        <v>245</v>
+      </c>
       <c r="F136" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="56"/>
+      <c r="G136" s="39" t="s">
+        <v>170</v>
+      </c>
       <c r="H136" s="24"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E137" s="56" t="s">
-        <v>246</v>
-      </c>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="72"/>
       <c r="F137" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G137" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H137" s="24"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="56"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="72"/>
       <c r="F138" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G138" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H138" s="24"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="56"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="72"/>
       <c r="F139" s="39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G139" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="56"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="72"/>
       <c r="F140" s="39" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G140" s="39" t="s">
         <v>177</v>
@@ -4730,61 +4722,56 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="56"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="F141" s="39" t="s">
         <v>183</v>
       </c>
       <c r="G141" s="39" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H141" s="24"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
       <c r="D142" s="40" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="G142" s="39" t="s">
-        <v>185</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G142" s="39"/>
       <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F143" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G143" s="39"/>
-      <c r="H143" s="24"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="47"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="99"/>
-      <c r="C144" s="99"/>
-      <c r="D144" s="100"/>
-      <c r="E144" s="101"/>
-      <c r="F144" s="102"/>
-      <c r="G144" s="103"/>
-      <c r="H144" s="104"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
@@ -4995,17 +4982,11 @@
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
@@ -5168,6 +5149,12 @@
     </row>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
@@ -5818,11 +5805,11 @@
       <c r="G295" s="2"/>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
     </row>
@@ -5832,8 +5819,8 @@
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
@@ -11514,27 +11501,86 @@
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="3"/>
-      <c r="B929" s="3"/>
-      <c r="C929" s="3"/>
-      <c r="D929" s="3"/>
-      <c r="E929" s="3"/>
+    <row r="929" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F930" s="3"/>
-      <c r="G930" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="B63:C88"/>
-    <mergeCell ref="B4:B62"/>
+  <mergeCells count="89">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B88:B142"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C108:C116"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="C132:C142"/>
+    <mergeCell ref="C97:C107"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C117:C127"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E77:E86"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D69:D86"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G44:G48"/>
     <mergeCell ref="E40:E41"/>
@@ -11544,81 +11590,12 @@
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="G36:G39"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C4:C17"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D70:D87"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="G53:G57"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="G98:G102"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="C133:C143"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C118:C128"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B89:B143"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="B63:C87"/>
+    <mergeCell ref="B4:B62"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/캠플렉스 프로젝트 구조명세서.xlsx
@@ -15,121 +15,377 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="269">
   <x:si>
+    <x:t>com.camflex.admin.product.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.product.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
     <x:t>src/main/resources/inquery/admin</x:t>
   </x:si>
   <x:si>
+    <x:t>com.camflex.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/reservation/reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/replyInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAPPER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BCrypt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paging</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>join</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MODEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/intro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>예약</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>생성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/template/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.product.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.product.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/product/updateProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.product.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/product/productDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryDetial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/template/client</x:t>
+  </x:si>
+  <x:si>
     <x:t>replyInquiry</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.login.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/product/productList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/product/regProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/updateNotice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/product/updateProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.product.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/template/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.product.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.member.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/template/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.product.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/product/productDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/reservation/reservationCancelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeList</x:t>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDetails</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반
+ (common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product
+ (상품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FileUploadUtil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberModify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReserveCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updateProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryWrite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updateNotice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductDAMOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/product</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -139,16 +395,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>reservation</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
+      <x:t>member
  (</x:t>
     </x:r>
     <x:r>
@@ -158,7 +405,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>예약</x:t>
+      <x:t>회원</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -171,58 +418,19 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>reservationDetail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Reservation</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>DAOImpl</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/member/member</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Data</x:t>
-    </x:r>
+    <x:t>reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminQuiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findPw</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -232,7 +440,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>reservation
+      <x:t>inquiry
 (</x:t>
     </x:r>
     <x:r>
@@ -242,7 +450,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>예약</x:t>
+      <x:t>문의</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -255,10 +463,76 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>ProductServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductController</x:t>
+    <x:t>contentLayout2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>Inquiry
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>문의사항</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>contentLayout1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/reservation/reservationCancelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin-notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminQuiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminQuiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin-product.xml</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -326,355 +600,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
+    <x:t>Admin-member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDetail</x:t>
   </x:si>
   <x:si>
     <x:t>MemberController</x:t>
   </x:si>
   <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin-notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminQuiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminQuiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin-product.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin-Inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin-member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservationConfirm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/ReserveList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/cancelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.product.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/reservation/reservationConfirm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.product.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/reservation/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.product.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.product.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.graph</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.admin.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminReservationCotroller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updateReplyInquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/intro</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAPPER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Paging</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BCrypt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>join</x:t>
-  </x:si>
-  <x:si>
-    <x:t>header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>findId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MODEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>예약</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>생성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FileUploadUtil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반
- (common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDetails</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>product
- (상품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/login</x:t>
+    <x:t>/member/memberData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -684,7 +625,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>member
+      <x:t>reservation
  (</x:t>
     </x:r>
     <x:r>
@@ -694,7 +635,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>회원</x:t>
+      <x:t>예약</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -707,80 +648,37 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updateNotice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductDAMOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updateProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryWrite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminQuiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberModify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReserveCancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>member/review</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
+    <x:t>ProductServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin-Inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reservationDetail</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -790,7 +688,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>Inquiry
+      <x:t>reservation
 (</x:t>
     </x:r>
     <x:r>
@@ -800,7 +698,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>문의사항</x:t>
+      <x:t>예약</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -813,91 +711,55 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ontentLayout1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Reservation</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>.xml</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ontentLayout2</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>inquiry
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>문의</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryDetial</x:t>
+    <x:t>AdminReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/ReserveList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>replyInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/cancelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservationConfirm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updateReplyInquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/reservation/reservationConfirm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.product.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.product.controller</x:t>
   </x:si>
   <x:si>
     <x:t>MemberVO</x:t>
@@ -912,73 +774,92 @@
     <x:t>Member.xml</x:t>
   </x:si>
   <x:si>
+    <x:t>mainContent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
     <x:t>Login.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
     <x:t>NoticeVO</x:t>
   </x:si>
   <x:si>
+    <x:t>CommonVO</x:t>
+  </x:si>
+  <x:si>
     <x:t>noticeList</x:t>
   </x:si>
   <x:si>
-    <x:t>mainContent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CommonVO</x:t>
-  </x:si>
-  <x:si>
     <x:t>PagingTag</x:t>
   </x:si>
   <x:si>
+    <x:t>ProductDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regNotice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chartList</x:t>
+  </x:si>
+  <x:si>
     <x:t>mainLayout</x:t>
   </x:si>
   <x:si>
+    <x:t>salesChart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cancelChart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry</x:t>
+  </x:si>
+  <x:si>
     <x:t>CONTROLLER</x:t>
   </x:si>
   <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
     <x:t>adminLogin</x:t>
   </x:si>
   <x:si>
     <x:t>ProductVO</x:t>
   </x:si>
   <x:si>
-    <x:t>ProductDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regNotice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chartList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cancelChart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>salesChart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inquiry.xml</x:t>
+    <x:t>product.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/content1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chart
+(통계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ChartMake</x:t>
   </x:si>
   <x:si>
     <x:t>campChart</x:t>
@@ -988,41 +869,19 @@
 (로그인)</x:t>
   </x:si>
   <x:si>
-    <x:t>chart
-(통계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>product.xml</x:t>
-  </x:si>
-  <x:si>
     <x:t>/product</x:t>
   </x:si>
   <x:si>
-    <x:t>memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>controller</x:t>
-  </x:si>
-  <x:si>
     <x:t>CancelList</x:t>
   </x:si>
   <x:si>
     <x:t>ReserveList</x:t>
   </x:si>
   <x:si>
-    <x:t>ChartMake</x:t>
-  </x:si>
-  <x:si>
     <x:t>MemberData</x:t>
   </x:si>
   <x:si>
-    <x:t>/content1</x:t>
-  </x:si>
-  <x:si>
     <x:t>/content2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1051,6 +910,9 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -1077,6 +939,35 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>aside4(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>관리자</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -1109,32 +1000,6 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>aside5(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리자</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
       <x:t>aside2(</x:t>
     </x:r>
     <x:r>
@@ -1161,7 +1026,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>aside4(</x:t>
+      <x:t>aside5(</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1207,10 +1072,91 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
+    <x:t>AdminReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminReservationCotroller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/replyInquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reservationAgreePage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationAgreePage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservationCancelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/ReserveCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/product/productList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/memberModify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin-reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.util</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/chart/chartList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/regNotice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryWrite</x:t>
   </x:si>
   <x:si>
     <x:t>/product/productDetail</x:t>
@@ -1231,115 +1177,40 @@
     <x:t>AdminMemberServiceImpl</x:t>
   </x:si>
   <x:si>
-    <x:t>AdminMemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin-reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservationCancelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.util</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/memberModify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/ReserveCancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.camflex.common.file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reservationAgreePage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/product/productList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationAgreePage</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Reservation</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ServiceImpl</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/chart/chartList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/regNotice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryWrite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/replyInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/updatereplyInquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/replyInquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>replyInquiryDetail</x:t>
+    <x:t>/admin/inquiry/updateReplyInquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/product/regProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/updateNotice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.admin.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.client.login.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.camflex.common.graph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/product/productList</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1393,28 +1264,12 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1547,16 +1402,10 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="20"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="돋움"/>
+          <x:name val="Arial"/>
           <x:sz val="20"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
@@ -1568,7 +1417,7 @@
       </mc:Choice>
       <mc:Fallback>
         <x:font>
-          <x:name val="돋움"/>
+          <x:name val="Arial"/>
           <x:sz val="20"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
@@ -1592,6 +1441,28 @@
           <x:name val="돋움"/>
           <x:sz val="10"/>
           <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3054,7 +2925,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3099,7 +2969,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3176,7 +3045,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3215,7 +3083,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3238,7 +3105,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3271,7 +3137,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3319,7 +3184,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3375,7 +3239,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3410,7 +3273,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3443,7 +3305,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3466,7 +3327,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3500,7 +3360,7 @@
       </x:fill>
     </x:dxf>
   </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="PivotStyleLight16" pivot="1" table="0" count="11">
       <x:tableStyleElement type="headerRow" size="1" dxfId="0"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="1"/>
@@ -3726,11 +3586,11 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M929"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E109" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="G146" activeCellId="0" sqref="G146:G146"/>
+    <x:sheetView tabSelected="1" topLeftCell="E124" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="G140" activeCellId="0" sqref="G140:G140"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.9"/>
   <x:cols>
     <x:col min="1" max="1" width="5.140625" customWidth="1"/>
     <x:col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -3745,7 +3605,7 @@
     <x:row r="1" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="48" t="s">
-        <x:v>46</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C1" s="49"/>
       <x:c r="D1" s="49"/>
@@ -3767,43 +3627,43 @@
     <x:row r="3" spans="1:8" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="5" t="s">
-        <x:v>261</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>261</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>259</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>260</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H3" s="23" t="s">
-        <x:v>263</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="50" t="s">
-        <x:v>138</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" s="78" t="s">
-        <x:v>154</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D4" s="51" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="18" t="s">
-        <x:v>29</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F4" s="26" t="s">
-        <x:v>181</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G4" s="52"/>
       <x:c r="H4" s="24"/>
@@ -3814,10 +3674,10 @@
       <x:c r="C5" s="78"/>
       <x:c r="D5" s="51"/>
       <x:c r="E5" s="52" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F5" s="26" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G5" s="52"/>
       <x:c r="H5" s="24"/>
@@ -3829,7 +3689,7 @@
       <x:c r="D6" s="51"/>
       <x:c r="E6" s="52"/>
       <x:c r="F6" s="26" t="s">
-        <x:v>132</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G6" s="52"/>
       <x:c r="H6" s="24"/>
@@ -3840,10 +3700,10 @@
       <x:c r="C7" s="78"/>
       <x:c r="D7" s="51"/>
       <x:c r="E7" s="52" t="s">
-        <x:v>78</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="26" t="s">
-        <x:v>139</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G7" s="52"/>
       <x:c r="H7" s="24"/>
@@ -3855,7 +3715,7 @@
       <x:c r="D8" s="51"/>
       <x:c r="E8" s="52"/>
       <x:c r="F8" s="26" t="s">
-        <x:v>47</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G8" s="52"/>
       <x:c r="H8" s="24"/>
@@ -3865,16 +3725,16 @@
       <x:c r="B9" s="50"/>
       <x:c r="C9" s="78"/>
       <x:c r="D9" s="77" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E9" s="52" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F9" s="38" t="s">
-        <x:v>123</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G9" s="38" t="s">
-        <x:v>37</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H9" s="24"/>
     </x:row>
@@ -3885,10 +3745,10 @@
       <x:c r="D10" s="77"/>
       <x:c r="E10" s="52"/>
       <x:c r="F10" s="26" t="s">
-        <x:v>218</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G10" s="26" t="s">
-        <x:v>42</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H10" s="24"/>
     </x:row>
@@ -3899,10 +3759,10 @@
       <x:c r="D11" s="77"/>
       <x:c r="E11" s="52"/>
       <x:c r="F11" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G11" s="26" t="s">
-        <x:v>245</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H11" s="24"/>
     </x:row>
@@ -3913,10 +3773,10 @@
       <x:c r="D12" s="77"/>
       <x:c r="E12" s="52"/>
       <x:c r="F12" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G12" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H12" s="24"/>
     </x:row>
@@ -3927,10 +3787,10 @@
       <x:c r="D13" s="77"/>
       <x:c r="E13" s="52"/>
       <x:c r="F13" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G13" s="26" t="s">
-        <x:v>246</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H13" s="24"/>
     </x:row>
@@ -3941,10 +3801,10 @@
       <x:c r="D14" s="77"/>
       <x:c r="E14" s="52"/>
       <x:c r="F14" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G14" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H14" s="24"/>
     </x:row>
@@ -3955,10 +3815,10 @@
       <x:c r="D15" s="77"/>
       <x:c r="E15" s="52"/>
       <x:c r="F15" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G15" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H15" s="24"/>
     </x:row>
@@ -3967,16 +3827,16 @@
       <x:c r="B16" s="50"/>
       <x:c r="C16" s="78"/>
       <x:c r="D16" s="20" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E16" s="26" t="s">
-        <x:v>72</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F16" s="26" t="s">
-        <x:v>49</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G16" s="26" t="s">
-        <x:v>109</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H16" s="24"/>
     </x:row>
@@ -3985,13 +3845,13 @@
       <x:c r="B17" s="50"/>
       <x:c r="C17" s="78"/>
       <x:c r="D17" s="35" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E17" s="26" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F17" s="26" t="s">
-        <x:v>184</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G17" s="26"/>
       <x:c r="H17" s="24"/>
@@ -4000,16 +3860,16 @@
       <x:c r="A18" s="1"/>
       <x:c r="B18" s="50"/>
       <x:c r="C18" s="86" t="s">
-        <x:v>158</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D18" s="77" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F18" s="32" t="s">
-        <x:v>114</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="62"/>
       <x:c r="H18" s="24"/>
@@ -4020,10 +3880,10 @@
       <x:c r="C19" s="87"/>
       <x:c r="D19" s="63"/>
       <x:c r="E19" s="62" t="s">
-        <x:v>19</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F19" s="32" t="s">
-        <x:v>186</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G19" s="63"/>
       <x:c r="H19" s="24"/>
@@ -4035,7 +3895,7 @@
       <x:c r="D20" s="63"/>
       <x:c r="E20" s="63"/>
       <x:c r="F20" s="32" t="s">
-        <x:v>134</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G20" s="63"/>
       <x:c r="H20" s="24"/>
@@ -4046,10 +3906,10 @@
       <x:c r="C21" s="87"/>
       <x:c r="D21" s="63"/>
       <x:c r="E21" s="62" t="s">
-        <x:v>85</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="32" t="s">
-        <x:v>160</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G21" s="63"/>
       <x:c r="H21" s="24"/>
@@ -4061,7 +3921,7 @@
       <x:c r="D22" s="63"/>
       <x:c r="E22" s="63"/>
       <x:c r="F22" s="32" t="s">
-        <x:v>51</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G22" s="63"/>
       <x:c r="H22" s="24"/>
@@ -4071,16 +3931,16 @@
       <x:c r="B23" s="50"/>
       <x:c r="C23" s="87"/>
       <x:c r="D23" s="74" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E23" s="65" t="s">
-        <x:v>2</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F23" s="32" t="s">
-        <x:v>106</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G23" s="32" t="s">
-        <x:v>153</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H23" s="24"/>
     </x:row>
@@ -4091,10 +3951,10 @@
       <x:c r="D24" s="75"/>
       <x:c r="E24" s="66"/>
       <x:c r="F24" s="32" t="s">
-        <x:v>125</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G24" s="32" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H24" s="24"/>
     </x:row>
@@ -4105,10 +3965,10 @@
       <x:c r="D25" s="76"/>
       <x:c r="E25" s="67"/>
       <x:c r="F25" s="32" t="s">
-        <x:v>130</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G25" s="32" t="s">
-        <x:v>172</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H25" s="24"/>
     </x:row>
@@ -4117,16 +3977,16 @@
       <x:c r="B26" s="50"/>
       <x:c r="C26" s="87"/>
       <x:c r="D26" s="31" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E26" s="32" t="s">
-        <x:v>90</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="32" t="s">
-        <x:v>137</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G26" s="32" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H26" s="24"/>
     </x:row>
@@ -4135,13 +3995,13 @@
       <x:c r="B27" s="50"/>
       <x:c r="C27" s="88"/>
       <x:c r="D27" s="31" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E27" s="32" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F27" s="32" t="s">
-        <x:v>185</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G27" s="11"/>
       <x:c r="H27" s="24"/>
@@ -4150,16 +4010,16 @@
       <x:c r="A28" s="1"/>
       <x:c r="B28" s="50"/>
       <x:c r="C28" s="83" t="s">
-        <x:v>145</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D28" s="80" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E28" s="64" t="s">
-        <x:v>89</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F28" s="36" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G28" s="82"/>
       <x:c r="H28" s="24"/>
@@ -4171,7 +4031,7 @@
       <x:c r="D29" s="80"/>
       <x:c r="E29" s="64"/>
       <x:c r="F29" s="36" t="s">
-        <x:v>50</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G29" s="82"/>
       <x:c r="H29" s="24"/>
@@ -4182,10 +4042,10 @@
       <x:c r="C30" s="84"/>
       <x:c r="D30" s="80"/>
       <x:c r="E30" s="64" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F30" s="36" t="s">
-        <x:v>183</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G30" s="82"/>
       <x:c r="H30" s="24"/>
@@ -4197,7 +4057,7 @@
       <x:c r="D31" s="80"/>
       <x:c r="E31" s="64"/>
       <x:c r="F31" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G31" s="82"/>
       <x:c r="H31" s="24"/>
@@ -4207,16 +4067,16 @@
       <x:c r="B32" s="50"/>
       <x:c r="C32" s="84"/>
       <x:c r="D32" s="80" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E32" s="64" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F32" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G32" s="36" t="s">
-        <x:v>38</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H32" s="24"/>
     </x:row>
@@ -4227,10 +4087,10 @@
       <x:c r="D33" s="80"/>
       <x:c r="E33" s="64"/>
       <x:c r="F33" s="36" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G33" s="36" t="s">
-        <x:v>232</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H33" s="24"/>
     </x:row>
@@ -4239,16 +4099,16 @@
       <x:c r="B34" s="50"/>
       <x:c r="C34" s="84"/>
       <x:c r="D34" s="37" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E34" s="36" t="s">
-        <x:v>77</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F34" s="36" t="s">
-        <x:v>61</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G34" s="36" t="s">
-        <x:v>126</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H34" s="24"/>
     </x:row>
@@ -4257,13 +4117,13 @@
       <x:c r="B35" s="50"/>
       <x:c r="C35" s="85"/>
       <x:c r="D35" s="37" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E35" s="36" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F35" s="36" t="s">
-        <x:v>221</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G35" s="36"/>
       <x:c r="H35" s="24"/>
@@ -4272,16 +4132,16 @@
       <x:c r="A36" s="1"/>
       <x:c r="B36" s="50"/>
       <x:c r="C36" s="89" t="s">
-        <x:v>152</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D36" s="56" t="s">
-        <x:v>127</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E36" s="57" t="s">
-        <x:v>88</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F36" s="27" t="s">
-        <x:v>150</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G36" s="54"/>
       <x:c r="H36" s="24"/>
@@ -4293,7 +4153,7 @@
       <x:c r="D37" s="56"/>
       <x:c r="E37" s="57"/>
       <x:c r="F37" s="27" t="s">
-        <x:v>44</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G37" s="54"/>
       <x:c r="H37" s="24"/>
@@ -4304,10 +4164,10 @@
       <x:c r="C38" s="90"/>
       <x:c r="D38" s="56"/>
       <x:c r="E38" s="57" t="s">
-        <x:v>18</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F38" s="27" t="s">
-        <x:v>196</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G38" s="54"/>
       <x:c r="H38" s="24"/>
@@ -4319,7 +4179,7 @@
       <x:c r="D39" s="56"/>
       <x:c r="E39" s="57"/>
       <x:c r="F39" s="27" t="s">
-        <x:v>159</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G39" s="54"/>
       <x:c r="H39" s="24"/>
@@ -4329,16 +4189,16 @@
       <x:c r="B40" s="50"/>
       <x:c r="C40" s="90"/>
       <x:c r="D40" s="56" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E40" s="57" t="s">
-        <x:v>24</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F40" s="27" t="s">
-        <x:v>197</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G40" s="27" t="s">
-        <x:v>249</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H40" s="24"/>
     </x:row>
@@ -4349,10 +4209,10 @@
       <x:c r="D41" s="56"/>
       <x:c r="E41" s="57"/>
       <x:c r="F41" s="27" t="s">
-        <x:v>146</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G41" s="27" t="s">
-        <x:v>231</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="H41" s="24"/>
     </x:row>
@@ -4361,16 +4221,16 @@
       <x:c r="B42" s="50"/>
       <x:c r="C42" s="90"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E42" s="27" t="s">
-        <x:v>69</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F42" s="27" t="s">
-        <x:v>45</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="27" t="s">
-        <x:v>212</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H42" s="24"/>
     </x:row>
@@ -4379,13 +4239,13 @@
       <x:c r="B43" s="50"/>
       <x:c r="C43" s="91"/>
       <x:c r="D43" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E43" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F43" s="27" t="s">
-        <x:v>211</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G43" s="27"/>
       <x:c r="H43" s="24"/>
@@ -4394,16 +4254,16 @@
       <x:c r="A44" s="1"/>
       <x:c r="B44" s="50"/>
       <x:c r="C44" s="92" t="s">
-        <x:v>39</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D44" s="79" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E44" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F44" s="33" t="s">
-        <x:v>155</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G44" s="81"/>
       <x:c r="H44" s="24"/>
@@ -4414,10 +4274,10 @@
       <x:c r="C45" s="93"/>
       <x:c r="D45" s="79"/>
       <x:c r="E45" s="61" t="s">
-        <x:v>96</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F45" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G45" s="81"/>
       <x:c r="H45" s="24"/>
@@ -4434,7 +4294,7 @@
       <x:c r="D46" s="79"/>
       <x:c r="E46" s="61"/>
       <x:c r="F46" s="33" t="s">
-        <x:v>149</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G46" s="81"/>
       <x:c r="H46" s="24"/>
@@ -4450,10 +4310,10 @@
       <x:c r="C47" s="93"/>
       <x:c r="D47" s="79"/>
       <x:c r="E47" s="61" t="s">
-        <x:v>74</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F47" s="33" t="s">
-        <x:v>252</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G47" s="81"/>
       <x:c r="H47" s="24"/>
@@ -4465,7 +4325,7 @@
       <x:c r="D48" s="79"/>
       <x:c r="E48" s="61"/>
       <x:c r="F48" s="33" t="s">
-        <x:v>52</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G48" s="81"/>
       <x:c r="H48" s="24"/>
@@ -4480,16 +4340,16 @@
       <x:c r="B49" s="50"/>
       <x:c r="C49" s="93"/>
       <x:c r="D49" s="79" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E49" s="61" t="s">
-        <x:v>83</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F49" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G49" s="27" t="s">
-        <x:v>40</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H49" s="24"/>
       <x:c r="I49"/>
@@ -4505,10 +4365,10 @@
       <x:c r="D50" s="79"/>
       <x:c r="E50" s="61"/>
       <x:c r="F50" s="27" t="s">
-        <x:v>251</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G50" s="27" t="s">
-        <x:v>248</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H50" s="24"/>
     </x:row>
@@ -4517,19 +4377,19 @@
       <x:c r="B51" s="50"/>
       <x:c r="C51" s="93"/>
       <x:c r="D51" s="29" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E51" s="34" t="s">
-        <x:v>34</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F51" s="34" t="s">
-        <x:v>250</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G51" s="34" t="s">
-        <x:v>171</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H51" s="25" t="s">
-        <x:v>131</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:13" ht="15.75" customHeight="1">
@@ -4537,13 +4397,13 @@
       <x:c r="B52" s="50"/>
       <x:c r="C52" s="94"/>
       <x:c r="D52" s="29" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E52" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F52" s="33" t="s">
-        <x:v>177</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G52" s="34"/>
       <x:c r="H52" s="24"/>
@@ -4557,16 +4417,16 @@
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="50"/>
       <x:c r="C53" s="69" t="s">
-        <x:v>175</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D53" s="53" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E53" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F53" s="27" t="s">
-        <x:v>203</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G53" s="54"/>
       <x:c r="H53" s="24"/>
@@ -4582,10 +4442,10 @@
       <x:c r="C54" s="70"/>
       <x:c r="D54" s="53"/>
       <x:c r="E54" s="54" t="s">
-        <x:v>21</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F54" s="27" t="s">
-        <x:v>206</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G54" s="54"/>
       <x:c r="H54" s="24"/>
@@ -4602,7 +4462,7 @@
       <x:c r="D55" s="53"/>
       <x:c r="E55" s="54"/>
       <x:c r="F55" s="27" t="s">
-        <x:v>157</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G55" s="54"/>
       <x:c r="H55" s="24"/>
@@ -4618,10 +4478,10 @@
       <x:c r="C56" s="70"/>
       <x:c r="D56" s="53"/>
       <x:c r="E56" s="54" t="s">
-        <x:v>92</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F56" s="27" t="s">
-        <x:v>164</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G56" s="54"/>
       <x:c r="H56" s="24"/>
@@ -4638,7 +4498,7 @@
       <x:c r="D57" s="53"/>
       <x:c r="E57" s="54"/>
       <x:c r="F57" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G57" s="54"/>
       <x:c r="H57" s="24"/>
@@ -4653,16 +4513,16 @@
       <x:c r="B58" s="50"/>
       <x:c r="C58" s="70"/>
       <x:c r="D58" s="53" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E58" s="54" t="s">
-        <x:v>12</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F58" s="27" t="s">
-        <x:v>202</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G58" s="14" t="s">
-        <x:v>255</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H58" s="24"/>
     </x:row>
@@ -4673,10 +4533,10 @@
       <x:c r="D59" s="53"/>
       <x:c r="E59" s="54"/>
       <x:c r="F59" s="27" t="s">
-        <x:v>162</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G59" s="14" t="s">
-        <x:v>258</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H59" s="24"/>
     </x:row>
@@ -4687,10 +4547,10 @@
       <x:c r="D60" s="53"/>
       <x:c r="E60" s="54"/>
       <x:c r="F60" s="27" t="s">
-        <x:v>148</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G60" s="14" t="s">
-        <x:v>233</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H60" s="24"/>
     </x:row>
@@ -4699,16 +4559,16 @@
       <x:c r="B61" s="50"/>
       <x:c r="C61" s="70"/>
       <x:c r="D61" s="30" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E61" s="14" t="s">
-        <x:v>75</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F61" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G61" s="27" t="s">
-        <x:v>205</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H61" s="24"/>
     </x:row>
@@ -4717,13 +4577,13 @@
       <x:c r="B62" s="50"/>
       <x:c r="C62" s="71"/>
       <x:c r="D62" s="28" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E62" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F62" s="27" t="s">
-        <x:v>207</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G62" s="27"/>
       <x:c r="H62" s="24"/>
@@ -4731,17 +4591,17 @@
     <x:row r="63" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="95" t="s">
-        <x:v>143</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C63" s="96"/>
       <x:c r="D63" s="72" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G63" s="7"/>
       <x:c r="H63" s="24"/>
@@ -4752,10 +4612,10 @@
       <x:c r="C64" s="98"/>
       <x:c r="D64" s="73"/>
       <x:c r="E64" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G64" s="7"/>
       <x:c r="H64" s="24"/>
@@ -4766,10 +4626,10 @@
       <x:c r="C65" s="98"/>
       <x:c r="D65" s="73"/>
       <x:c r="E65" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F65" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G65" s="7"/>
       <x:c r="H65" s="24"/>
@@ -4780,10 +4640,10 @@
       <x:c r="C66" s="98"/>
       <x:c r="D66" s="73"/>
       <x:c r="E66" s="54" t="s">
-        <x:v>243</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G66" s="7"/>
       <x:c r="H66" s="24"/>
@@ -4795,7 +4655,7 @@
       <x:c r="D67" s="73"/>
       <x:c r="E67" s="68"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G67" s="7"/>
       <x:c r="H67" s="24"/>
@@ -4806,10 +4666,10 @@
       <x:c r="C68" s="98"/>
       <x:c r="D68" s="73"/>
       <x:c r="E68" s="41" t="s">
-        <x:v>244</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F68" s="14" t="s">
-        <x:v>122</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G68" s="7"/>
       <x:c r="H68" s="24"/>
@@ -4819,16 +4679,16 @@
       <x:c r="B69" s="97"/>
       <x:c r="C69" s="98"/>
       <x:c r="D69" s="53" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E69" s="58" t="s">
-        <x:v>30</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F69" s="6" t="s">
-        <x:v>192</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H69" s="24"/>
     </x:row>
@@ -4839,7 +4699,7 @@
       <x:c r="D70" s="53"/>
       <x:c r="E70" s="59"/>
       <x:c r="F70" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G70" s="7"/>
       <x:c r="H70" s="24"/>
@@ -4851,10 +4711,10 @@
       <x:c r="D71" s="53"/>
       <x:c r="E71" s="59"/>
       <x:c r="F71" s="21" t="s">
-        <x:v>176</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G71" s="7" t="s">
-        <x:v>219</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H71" s="24"/>
     </x:row>
@@ -4865,10 +4725,10 @@
       <x:c r="D72" s="53"/>
       <x:c r="E72" s="59"/>
       <x:c r="F72" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G72" s="21" t="s">
-        <x:v>220</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H72" s="24"/>
     </x:row>
@@ -4879,7 +4739,7 @@
       <x:c r="D73" s="53"/>
       <x:c r="E73" s="59"/>
       <x:c r="F73" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G73" s="7"/>
       <x:c r="H73" s="24"/>
@@ -4891,7 +4751,7 @@
       <x:c r="D74" s="53"/>
       <x:c r="E74" s="59"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>222</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G74" s="7"/>
       <x:c r="H74" s="24"/>
@@ -4903,7 +4763,7 @@
       <x:c r="D75" s="53"/>
       <x:c r="E75" s="59"/>
       <x:c r="F75" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G75" s="21"/>
       <x:c r="H75" s="24"/>
@@ -4915,7 +4775,7 @@
       <x:c r="D76" s="53"/>
       <x:c r="E76" s="60"/>
       <x:c r="F76" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G76" s="17"/>
       <x:c r="H76" s="24"/>
@@ -4926,10 +4786,10 @@
       <x:c r="C77" s="98"/>
       <x:c r="D77" s="53"/>
       <x:c r="E77" s="58" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F77" s="6" t="s">
-        <x:v>192</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G77" s="21"/>
       <x:c r="H77" s="24"/>
@@ -4941,7 +4801,7 @@
       <x:c r="D78" s="53"/>
       <x:c r="E78" s="59"/>
       <x:c r="F78" s="21" t="s">
-        <x:v>124</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G78" s="21"/>
       <x:c r="H78" s="24"/>
@@ -4953,7 +4813,7 @@
       <x:c r="D79" s="53"/>
       <x:c r="E79" s="59"/>
       <x:c r="F79" s="21" t="s">
-        <x:v>176</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G79" s="21"/>
       <x:c r="H79" s="24"/>
@@ -4965,7 +4825,7 @@
       <x:c r="D80" s="53"/>
       <x:c r="E80" s="59"/>
       <x:c r="F80" s="7" t="s">
-        <x:v>223</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
       <x:c r="H80" s="24"/>
@@ -4977,7 +4837,7 @@
       <x:c r="D81" s="53"/>
       <x:c r="E81" s="59"/>
       <x:c r="F81" s="7" t="s">
-        <x:v>226</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
       <x:c r="H81" s="24"/>
@@ -4989,7 +4849,7 @@
       <x:c r="D82" s="53"/>
       <x:c r="E82" s="59"/>
       <x:c r="F82" s="8" t="s">
-        <x:v>228</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G82" s="8"/>
       <x:c r="H82" s="24"/>
@@ -5001,7 +4861,7 @@
       <x:c r="D83" s="53"/>
       <x:c r="E83" s="59"/>
       <x:c r="F83" s="8" t="s">
-        <x:v>227</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G83" s="8"/>
       <x:c r="H83" s="24"/>
@@ -5013,7 +4873,7 @@
       <x:c r="D84" s="53"/>
       <x:c r="E84" s="59"/>
       <x:c r="F84" s="8" t="s">
-        <x:v>225</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="24"/>
@@ -5025,7 +4885,7 @@
       <x:c r="D85" s="53"/>
       <x:c r="E85" s="59"/>
       <x:c r="F85" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G85" s="7"/>
       <x:c r="H85" s="24"/>
@@ -5042,7 +4902,7 @@
       <x:c r="D86" s="53"/>
       <x:c r="E86" s="60"/>
       <x:c r="F86" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G86" s="17"/>
       <x:c r="H86" s="24"/>
@@ -5057,16 +4917,16 @@
       <x:c r="B87" s="99"/>
       <x:c r="C87" s="100"/>
       <x:c r="D87" s="15" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E87" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F87" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>262</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H87" s="24"/>
       <x:c r="I87" s="4"/>
@@ -5078,22 +4938,22 @@
     <x:row r="88" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A88" s="1"/>
       <x:c r="B88" s="50" t="s">
-        <x:v>140</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C88" s="55" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D88" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E88" s="39" t="s">
-        <x:v>5</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F88" s="39" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G88" s="39" t="s">
-        <x:v>235</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H88" s="24"/>
     </x:row>
@@ -5102,16 +4962,16 @@
       <x:c r="B89" s="50"/>
       <x:c r="C89" s="55"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E89" s="39" t="s">
-        <x:v>87</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F89" s="39" t="s">
-        <x:v>254</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G89" s="39" t="s">
-        <x:v>121</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H89" s="24"/>
     </x:row>
@@ -5119,16 +4979,16 @@
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="50"/>
       <x:c r="C90" s="55" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D90" s="53" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E90" s="54" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F90" s="39" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="D90" s="53" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E90" s="54" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F90" s="39" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="G90" s="54"/>
       <x:c r="H90" s="24"/>
@@ -5140,7 +5000,7 @@
       <x:c r="D91" s="53"/>
       <x:c r="E91" s="54"/>
       <x:c r="F91" s="39" t="s">
-        <x:v>236</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G91" s="54"/>
       <x:c r="H91" s="24"/>
@@ -5151,10 +5011,10 @@
       <x:c r="C92" s="55"/>
       <x:c r="D92" s="53"/>
       <x:c r="E92" s="54" t="s">
-        <x:v>28</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F92" s="39" t="s">
-        <x:v>174</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G92" s="54"/>
       <x:c r="H92" s="24"/>
@@ -5166,7 +5026,7 @@
       <x:c r="D93" s="53"/>
       <x:c r="E93" s="54"/>
       <x:c r="F93" s="39" t="s">
-        <x:v>66</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G93" s="54"/>
       <x:c r="H93" s="24"/>
@@ -5176,16 +5036,16 @@
       <x:c r="B94" s="50"/>
       <x:c r="C94" s="55"/>
       <x:c r="D94" s="40" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E94" s="39" t="s">
-        <x:v>103</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F94" s="39" t="s">
-        <x:v>213</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G94" s="39" t="s">
-        <x:v>101</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H94" s="24"/>
     </x:row>
@@ -5194,16 +5054,16 @@
       <x:c r="B95" s="50"/>
       <x:c r="C95" s="55"/>
       <x:c r="D95" s="40" t="s">
-        <x:v>214</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E95" s="39" t="s">
-        <x:v>94</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F95" s="39" t="s">
-        <x:v>237</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G95" s="39" t="s">
-        <x:v>167</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H95" s="24"/>
     </x:row>
@@ -5212,13 +5072,13 @@
       <x:c r="B96" s="50"/>
       <x:c r="C96" s="55"/>
       <x:c r="D96" s="40" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E96" s="39" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F96" s="39" t="s">
-        <x:v>62</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G96" s="39"/>
       <x:c r="H96" s="24"/>
@@ -5227,16 +5087,16 @@
       <x:c r="A97" s="1"/>
       <x:c r="B97" s="50"/>
       <x:c r="C97" s="55" t="s">
-        <x:v>152</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D97" s="56" t="s">
-        <x:v>127</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E97" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F97" s="39" t="s">
-        <x:v>195</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G97" s="54"/>
       <x:c r="H97" s="24"/>
@@ -5247,10 +5107,10 @@
       <x:c r="C98" s="55"/>
       <x:c r="D98" s="56"/>
       <x:c r="E98" s="57" t="s">
-        <x:v>86</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F98" s="39" t="s">
-        <x:v>150</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G98" s="54"/>
       <x:c r="H98" s="24"/>
@@ -5262,7 +5122,7 @@
       <x:c r="D99" s="56"/>
       <x:c r="E99" s="57"/>
       <x:c r="F99" s="39" t="s">
-        <x:v>44</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G99" s="54"/>
       <x:c r="H99" s="24"/>
@@ -5273,10 +5133,10 @@
       <x:c r="C100" s="55"/>
       <x:c r="D100" s="56"/>
       <x:c r="E100" s="57" t="s">
-        <x:v>26</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F100" s="39" t="s">
-        <x:v>196</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G100" s="54"/>
       <x:c r="H100" s="24"/>
@@ -5288,7 +5148,7 @@
       <x:c r="D101" s="56"/>
       <x:c r="E101" s="57"/>
       <x:c r="F101" s="39" t="s">
-        <x:v>159</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G101" s="54"/>
       <x:c r="H101" s="24"/>
@@ -5298,16 +5158,16 @@
       <x:c r="B102" s="50"/>
       <x:c r="C102" s="55"/>
       <x:c r="D102" s="56" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E102" s="57" t="s">
-        <x:v>15</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F102" s="39" t="s">
-        <x:v>197</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G102" s="39" t="s">
-        <x:v>4</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H102" s="24"/>
     </x:row>
@@ -5318,10 +5178,10 @@
       <x:c r="D103" s="56"/>
       <x:c r="E103" s="57"/>
       <x:c r="F103" s="39" t="s">
-        <x:v>146</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G103" s="39" t="s">
-        <x:v>33</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H103" s="24"/>
     </x:row>
@@ -5332,10 +5192,10 @@
       <x:c r="D104" s="56"/>
       <x:c r="E104" s="57"/>
       <x:c r="F104" s="39" t="s">
-        <x:v>161</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G104" s="39" t="s">
-        <x:v>17</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H104" s="24"/>
     </x:row>
@@ -5346,10 +5206,10 @@
       <x:c r="D105" s="56"/>
       <x:c r="E105" s="57"/>
       <x:c r="F105" s="39" t="s">
-        <x:v>198</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G105" s="39" t="s">
-        <x:v>7</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="H105" s="24"/>
     </x:row>
@@ -5358,16 +5218,16 @@
       <x:c r="B106" s="50"/>
       <x:c r="C106" s="55"/>
       <x:c r="D106" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E106" s="39" t="s">
-        <x:v>76</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F106" s="39" t="s">
-        <x:v>45</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G106" s="39" t="s">
-        <x:v>165</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H106" s="24"/>
     </x:row>
@@ -5376,13 +5236,13 @@
       <x:c r="B107" s="50"/>
       <x:c r="C107" s="55"/>
       <x:c r="D107" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E107" s="39" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F107" s="39" t="s">
-        <x:v>56</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G107" s="39"/>
       <x:c r="H107" s="24"/>
@@ -5391,13 +5251,13 @@
       <x:c r="A108" s="1"/>
       <x:c r="B108" s="50"/>
       <x:c r="C108" s="50" t="s">
-        <x:v>43</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D108" s="53" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E108" s="54" t="s">
-        <x:v>70</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F108" s="39" t="s">
         <x:v>238</x:v>
@@ -5412,7 +5272,7 @@
       <x:c r="D109" s="53"/>
       <x:c r="E109" s="54"/>
       <x:c r="F109" s="39" t="s">
-        <x:v>100</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G109" s="54"/>
       <x:c r="H109" s="24"/>
@@ -5423,10 +5283,10 @@
       <x:c r="C110" s="50"/>
       <x:c r="D110" s="53"/>
       <x:c r="E110" s="54" t="s">
-        <x:v>95</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F110" s="39" t="s">
-        <x:v>63</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G110" s="54"/>
       <x:c r="H110" s="24"/>
@@ -5438,7 +5298,7 @@
       <x:c r="D111" s="53"/>
       <x:c r="E111" s="54"/>
       <x:c r="F111" s="39" t="s">
-        <x:v>242</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G111" s="54"/>
       <x:c r="H111" s="24"/>
@@ -5448,16 +5308,16 @@
       <x:c r="B112" s="50"/>
       <x:c r="C112" s="50"/>
       <x:c r="D112" s="53" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E112" s="54" t="s">
-        <x:v>80</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F112" s="39" t="s">
-        <x:v>166</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G112" s="39" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H112" s="24"/>
     </x:row>
@@ -5468,10 +5328,10 @@
       <x:c r="D113" s="53"/>
       <x:c r="E113" s="54"/>
       <x:c r="F113" s="39" t="s">
-        <x:v>64</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G113" s="39" t="s">
-        <x:v>71</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H113" s="24"/>
     </x:row>
@@ -5482,10 +5342,10 @@
       <x:c r="D114" s="53"/>
       <x:c r="E114" s="54"/>
       <x:c r="F114" s="39" t="s">
-        <x:v>241</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G114" s="39" t="s">
-        <x:v>36</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H114" s="24"/>
     </x:row>
@@ -5494,16 +5354,16 @@
       <x:c r="B115" s="50"/>
       <x:c r="C115" s="50"/>
       <x:c r="D115" s="40" t="s">
-        <x:v>214</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E115" s="39" t="s">
-        <x:v>35</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F115" s="39" t="s">
-        <x:v>104</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G115" s="39" t="s">
-        <x:v>65</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H115" s="24"/>
     </x:row>
@@ -5512,10 +5372,10 @@
       <x:c r="B116" s="50"/>
       <x:c r="C116" s="50"/>
       <x:c r="D116" s="40" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E116" s="39" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F116" s="39" t="s">
         <x:v>239</x:v>
@@ -5527,16 +5387,16 @@
       <x:c r="A117" s="1"/>
       <x:c r="B117" s="50"/>
       <x:c r="C117" s="55" t="s">
-        <x:v>145</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D117" s="56" t="s">
-        <x:v>127</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E117" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F117" s="39" t="s">
-        <x:v>187</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G117" s="54"/>
       <x:c r="H117" s="24"/>
@@ -5547,10 +5407,10 @@
       <x:c r="C118" s="55"/>
       <x:c r="D118" s="56"/>
       <x:c r="E118" s="57" t="s">
-        <x:v>84</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F118" s="39" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G118" s="54"/>
       <x:c r="H118" s="24"/>
@@ -5562,7 +5422,7 @@
       <x:c r="D119" s="56"/>
       <x:c r="E119" s="57"/>
       <x:c r="F119" s="39" t="s">
-        <x:v>50</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G119" s="54"/>
       <x:c r="H119" s="24"/>
@@ -5573,10 +5433,10 @@
       <x:c r="C120" s="55"/>
       <x:c r="D120" s="56"/>
       <x:c r="E120" s="57" t="s">
-        <x:v>16</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F120" s="39" t="s">
-        <x:v>183</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G120" s="54"/>
       <x:c r="H120" s="24"/>
@@ -5588,7 +5448,7 @@
       <x:c r="D121" s="56"/>
       <x:c r="E121" s="57"/>
       <x:c r="F121" s="39" t="s">
-        <x:v>136</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G121" s="54"/>
       <x:c r="H121" s="24"/>
@@ -5598,16 +5458,16 @@
       <x:c r="B122" s="50"/>
       <x:c r="C122" s="55"/>
       <x:c r="D122" s="56" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E122" s="57" t="s">
-        <x:v>99</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F122" s="39" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G122" s="39" t="s">
-        <x:v>6</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H122" s="24"/>
     </x:row>
@@ -5618,10 +5478,10 @@
       <x:c r="D123" s="56"/>
       <x:c r="E123" s="57"/>
       <x:c r="F123" s="39" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G123" s="39" t="s">
-        <x:v>8</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H123" s="24"/>
     </x:row>
@@ -5632,10 +5492,10 @@
       <x:c r="D124" s="56"/>
       <x:c r="E124" s="57"/>
       <x:c r="F124" s="39" t="s">
-        <x:v>156</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G124" s="39" t="s">
-        <x:v>9</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H124" s="24"/>
     </x:row>
@@ -5646,10 +5506,10 @@
       <x:c r="D125" s="56"/>
       <x:c r="E125" s="57"/>
       <x:c r="F125" s="39" t="s">
-        <x:v>199</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G125" s="39" t="s">
-        <x:v>257</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H125" s="24"/>
     </x:row>
@@ -5658,16 +5518,16 @@
       <x:c r="B126" s="50"/>
       <x:c r="C126" s="55"/>
       <x:c r="D126" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E126" s="39" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F126" s="39" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G126" s="39" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="F126" s="39" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G126" s="39" t="s">
-        <x:v>144</x:v>
       </x:c>
       <x:c r="H126" s="24"/>
     </x:row>
@@ -5676,13 +5536,13 @@
       <x:c r="B127" s="50"/>
       <x:c r="C127" s="55"/>
       <x:c r="D127" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E127" s="39" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F127" s="39" t="s">
-        <x:v>53</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G127" s="39"/>
       <x:c r="H127" s="24"/>
@@ -5691,19 +5551,19 @@
       <x:c r="A128" s="1"/>
       <x:c r="B128" s="50"/>
       <x:c r="C128" s="55" t="s">
-        <x:v>210</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D128" s="56" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E128" s="57" t="s">
-        <x:v>102</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F128" s="39" t="s">
-        <x:v>200</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G128" s="57" t="s">
-        <x:v>256</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H128" s="24"/>
     </x:row>
@@ -5714,7 +5574,7 @@
       <x:c r="D129" s="56"/>
       <x:c r="E129" s="57"/>
       <x:c r="F129" s="39" t="s">
-        <x:v>204</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G129" s="57"/>
       <x:c r="H129" s="24"/>
@@ -5731,7 +5591,7 @@
       <x:c r="D130" s="56"/>
       <x:c r="E130" s="57"/>
       <x:c r="F130" s="39" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G130" s="57"/>
       <x:c r="H130" s="24"/>
@@ -5748,7 +5608,7 @@
       <x:c r="D131" s="56"/>
       <x:c r="E131" s="57"/>
       <x:c r="F131" s="39" t="s">
-        <x:v>201</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G131" s="57"/>
       <x:c r="H131" s="24"/>
@@ -5762,16 +5622,16 @@
       <x:c r="A132" s="1"/>
       <x:c r="B132" s="50"/>
       <x:c r="C132" s="50" t="s">
-        <x:v>179</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D132" s="53" t="s">
-        <x:v>127</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E132" s="54" t="s">
-        <x:v>91</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F132" s="39" t="s">
-        <x:v>54</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G132" s="54"/>
       <x:c r="H132" s="24"/>
@@ -5783,7 +5643,7 @@
       <x:c r="D133" s="53"/>
       <x:c r="E133" s="54"/>
       <x:c r="F133" s="39" t="s">
-        <x:v>234</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G133" s="54"/>
       <x:c r="H133" s="24"/>
@@ -5794,10 +5654,10 @@
       <x:c r="C134" s="50"/>
       <x:c r="D134" s="53"/>
       <x:c r="E134" s="54" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F134" s="39" t="s">
-        <x:v>163</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G134" s="54"/>
       <x:c r="H134" s="24"/>
@@ -5809,7 +5669,7 @@
       <x:c r="D135" s="53"/>
       <x:c r="E135" s="54"/>
       <x:c r="F135" s="39" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G135" s="54"/>
       <x:c r="H135" s="24"/>
@@ -5819,16 +5679,16 @@
       <x:c r="B136" s="50"/>
       <x:c r="C136" s="50"/>
       <x:c r="D136" s="53" t="s">
-        <x:v>115</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E136" s="54" t="s">
-        <x:v>253</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F136" s="39" t="s">
-        <x:v>229</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G136" s="39" t="s">
-        <x:v>267</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H136" s="24"/>
     </x:row>
@@ -5839,10 +5699,10 @@
       <x:c r="D137" s="53"/>
       <x:c r="E137" s="54"/>
       <x:c r="F137" s="39" t="s">
-        <x:v>230</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G137" s="39" t="s">
-        <x:v>180</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H137" s="24"/>
     </x:row>
@@ -5853,10 +5713,10 @@
       <x:c r="D138" s="53"/>
       <x:c r="E138" s="54"/>
       <x:c r="F138" s="39" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G138" s="39" t="s">
-        <x:v>266</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H138" s="24"/>
     </x:row>
@@ -5867,10 +5727,10 @@
       <x:c r="D139" s="53"/>
       <x:c r="E139" s="54"/>
       <x:c r="F139" s="39" t="s">
-        <x:v>268</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G139" s="39" t="s">
-        <x:v>264</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H139" s="24"/>
     </x:row>
@@ -5881,10 +5741,10 @@
       <x:c r="D140" s="53"/>
       <x:c r="E140" s="54"/>
       <x:c r="F140" s="39" t="s">
-        <x:v>105</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G140" s="39" t="s">
-        <x:v>265</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H140" s="24"/>
     </x:row>
@@ -5893,16 +5753,16 @@
       <x:c r="B141" s="50"/>
       <x:c r="C141" s="50"/>
       <x:c r="D141" s="40" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E141" s="39" t="s">
-        <x:v>73</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F141" s="39" t="s">
-        <x:v>57</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G141" s="39" t="s">
-        <x:v>147</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H141" s="24"/>
     </x:row>
@@ -5911,13 +5771,13 @@
       <x:c r="B142" s="50"/>
       <x:c r="C142" s="50"/>
       <x:c r="D142" s="40" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E142" s="39" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F142" s="39" t="s">
-        <x:v>60</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G142" s="39"/>
       <x:c r="H142" s="24"/>
@@ -12669,7 +12529,7 @@
       <x:c r="F928" s="3"/>
       <x:c r="G928" s="3"/>
     </x:row>
-    <x:row r="929" spans="6:7" customHeight="1">
+    <x:row r="929" spans="6:7" ht="15" customHeight="1">
       <x:c r="F929" s="3"/>
       <x:c r="G929" s="3"/>
     </x:row>
@@ -12769,7 +12629,7 @@
     <x:hyperlink ref="E44:E44" r:id="rId1" tooltip="http://com.space.admin.vo/"/>
     <x:hyperlink ref="E4:E4" r:id="rId2" tooltip="http://com.space.mem.vo/"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>